--- a/upload.xlsx
+++ b/upload.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="ENGLISH" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="English" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="NOTES" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -2447,6 +2447,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2506,8 +2507,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2530,3308 +2535,3308 @@
   </sheetPr>
   <dimension ref="A1:I184"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B85" activeCellId="0" sqref="B85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="0" t="s">
+      <c r="E3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="E4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" s="0" t="s">
+      <c r="E5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="0" t="s">
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="I8" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="E9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F10" s="0" t="s">
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="0" t="s">
+      <c r="I10" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="E11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="0" t="s">
+      <c r="I11" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F12" s="0" t="s">
+      <c r="E12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="0" t="s">
+      <c r="I12" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="E13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="I13" s="0" t="s">
+      <c r="I13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="0" t="s">
+      <c r="E14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I14" s="0" t="s">
+      <c r="I14" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="E15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F16" s="0" t="s">
+      <c r="E16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" s="0" t="s">
+      <c r="E17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" s="0" t="s">
+      <c r="E18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E19" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F19" s="0" t="s">
+      <c r="E19" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="I19" s="0" t="s">
+      <c r="I19" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" s="0" t="s">
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="0" t="s">
+      <c r="I20" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E21" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" s="0" t="s">
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="I21" s="0" t="s">
+      <c r="I21" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B22" s="0" t="s">
+      <c r="B22" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" s="0" t="s">
+      <c r="E22" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="I22" s="0" t="s">
+      <c r="I22" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F23" s="0" t="s">
+      <c r="E23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="I23" s="0" t="s">
+      <c r="I23" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="B24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="E24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F24" s="0" t="s">
+      <c r="E24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="I24" s="0" t="s">
+      <c r="I24" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F25" s="0" t="s">
+      <c r="E25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="I25" s="0" t="s">
+      <c r="I25" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E26" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F26" s="0" t="s">
+      <c r="E26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="I26" s="0" t="s">
+      <c r="I26" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F27" s="0" t="s">
+      <c r="E27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I27" s="0" t="s">
+      <c r="I27" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" s="0" t="s">
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="I28" s="0" t="s">
+      <c r="I28" s="1" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" s="0" t="s">
+      <c r="E29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="0" t="s">
+      <c r="I29" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F30" s="0" t="s">
+      <c r="E30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I30" s="0" t="s">
+      <c r="I30" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F31" s="0" t="s">
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="I31" s="0" t="s">
+      <c r="I31" s="1" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" s="0" t="s">
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="I32" s="0" t="s">
+      <c r="I32" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F33" s="0" t="s">
+      <c r="E33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I33" s="0" t="s">
+      <c r="I33" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F34" s="0" t="s">
+      <c r="E34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I34" s="0" t="s">
+      <c r="I34" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B35" s="0" t="s">
+      <c r="B35" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F35" s="0" t="s">
+      <c r="E35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="I35" s="0" t="s">
+      <c r="I35" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F36" s="0" t="s">
+      <c r="E36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="I36" s="0" t="s">
+      <c r="I36" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F37" s="0" t="s">
+      <c r="E37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="I37" s="0" t="s">
+      <c r="I37" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F38" s="0" t="s">
+      <c r="E38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="I38" s="0" t="s">
+      <c r="I38" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" s="0" t="s">
+      <c r="E39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="I39" s="0" t="s">
+      <c r="I39" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F40" s="0" t="s">
+      <c r="E40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="I40" s="0" t="s">
+      <c r="I40" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" s="0" t="s">
+      <c r="E41" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="I41" s="0" t="s">
+      <c r="I41" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="E42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" s="0" t="s">
+      <c r="E42" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="I42" s="0" t="s">
+      <c r="I42" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F43" s="0" t="s">
+      <c r="E43" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="I43" s="0" t="s">
+      <c r="I43" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" s="0" t="s">
+      <c r="E44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="I44" s="0" t="s">
+      <c r="I44" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E45" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" s="0" t="s">
+      <c r="E45" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="I45" s="0" t="s">
+      <c r="I45" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="0" t="s">
+      <c r="E46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="I46" s="0" t="s">
+      <c r="I46" s="1" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="0" t="s">
+      <c r="E47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="I47" s="0" t="s">
+      <c r="I47" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="0" t="s">
+      <c r="E48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F48" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="I48" s="0" t="s">
+      <c r="I48" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="E49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F49" s="0" t="s">
+      <c r="E49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I49" s="0" t="s">
+      <c r="I49" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="E50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="0" t="s">
+      <c r="E50" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I50" s="0" t="s">
+      <c r="I50" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F51" s="0" t="s">
+      <c r="E51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F51" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="I51" s="0" t="s">
+      <c r="I51" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F52" s="0" t="s">
+      <c r="E52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="I52" s="0" t="s">
+      <c r="I52" s="1" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="B53" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F53" s="0" t="s">
+      <c r="E53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I53" s="0" t="s">
+      <c r="I53" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" s="0" t="s">
+      <c r="E54" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="I54" s="0" t="s">
+      <c r="I54" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="E55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F55" s="0" t="s">
+      <c r="E55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="I55" s="0" t="s">
+      <c r="I55" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="E56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" s="0" t="s">
+      <c r="E56" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="I56" s="0" t="s">
+      <c r="I56" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="0" t="s">
+      <c r="B57" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E57" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" s="0" t="s">
+      <c r="E57" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I57" s="0" t="s">
+      <c r="I57" s="1" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="E58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" s="0" t="s">
+      <c r="E58" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="I58" s="0" t="s">
+      <c r="I58" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E59" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F59" s="0" t="s">
+      <c r="E59" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F59" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="I59" s="0" t="s">
+      <c r="I59" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F60" s="0" t="s">
+      <c r="E60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="I60" s="0" t="s">
+      <c r="I60" s="1" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="E61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F61" s="0" t="s">
+      <c r="E61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="I61" s="0" t="s">
+      <c r="I61" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="B62" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F62" s="0" t="s">
+      <c r="E62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="I62" s="0" t="s">
+      <c r="I62" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="E63" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" s="0" t="s">
+      <c r="E63" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="I63" s="0" t="s">
+      <c r="I63" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F64" s="0" t="s">
+      <c r="E64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="I64" s="0" t="s">
+      <c r="I64" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="E65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F65" s="0" t="s">
+      <c r="E65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F65" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="I65" s="0" t="s">
+      <c r="I65" s="1" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B66" s="0" t="s">
+      <c r="B66" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F66" s="0" t="s">
+      <c r="E66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="I66" s="0" t="s">
+      <c r="I66" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="E67" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F67" s="0" t="s">
+      <c r="E67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I67" s="0" t="s">
+      <c r="I67" s="1" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="E68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F68" s="0" t="s">
+      <c r="E68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F68" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I68" s="0" t="s">
+      <c r="I68" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B69" s="0" t="s">
+      <c r="B69" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="E69" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F69" s="0" t="s">
+      <c r="E69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="I69" s="0" t="s">
+      <c r="I69" s="1" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="E70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F70" s="0" t="s">
+      <c r="E70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="I70" s="0" t="s">
+      <c r="I70" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F71" s="0" t="s">
+      <c r="E71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="I71" s="0" t="s">
+      <c r="I71" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="E72" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F72" s="0" t="s">
+      <c r="E72" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="I72" s="0" t="s">
+      <c r="I72" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="E73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F73" s="0" t="s">
+      <c r="E73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F73" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="I73" s="0" t="s">
+      <c r="I73" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="E74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F74" s="0" t="s">
+      <c r="E74" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="I74" s="0" t="s">
+      <c r="I74" s="1" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E75" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F75" s="0" t="s">
+      <c r="E75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F75" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="I75" s="0" t="s">
+      <c r="I75" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F76" s="0" t="s">
+      <c r="E76" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="I76" s="0" t="s">
+      <c r="I76" s="1" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="E77" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F77" s="0" t="s">
+      <c r="E77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F77" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="I77" s="0" t="s">
+      <c r="I77" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="E78" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F78" s="0" t="s">
+      <c r="E78" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F78" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I78" s="0" t="s">
+      <c r="I78" s="1" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="E79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F79" s="0" t="s">
+      <c r="E79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="I79" s="0" t="s">
+      <c r="I79" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="E80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F80" s="0" t="s">
+      <c r="E80" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="I80" s="0" t="s">
+      <c r="I80" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B81" s="0" t="s">
+      <c r="B81" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="E81" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="0" t="s">
+      <c r="E81" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I81" s="0" t="s">
+      <c r="I81" s="1" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="E82" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F82" s="0" t="s">
+      <c r="E82" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="I82" s="0" t="s">
+      <c r="I82" s="1" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="E83" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F83" s="0" t="s">
+      <c r="E83" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="I83" s="0" t="s">
+      <c r="I83" s="1" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B84" s="0" t="s">
+      <c r="B84" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="E84" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F84" s="0" t="s">
+      <c r="E84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F84" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="I84" s="0" t="s">
+      <c r="I84" s="1" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="E85" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F85" s="0" t="s">
+      <c r="E85" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="I85" s="0" t="s">
+      <c r="I85" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="B86" s="0" t="s">
+      <c r="B86" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="C86" s="0" t="s">
+      <c r="C86" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="E86" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F86" s="0" t="s">
+      <c r="E86" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="I86" s="0" t="s">
+      <c r="I86" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C87" s="0" t="s">
+      <c r="C87" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="E87" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F87" s="0" t="s">
+      <c r="E87" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I87" s="0" t="s">
+      <c r="I87" s="1" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B88" s="0" t="s">
+      <c r="B88" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="C88" s="0" t="s">
+      <c r="C88" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="E88" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F88" s="0" t="s">
+      <c r="E88" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="I88" s="0" t="s">
+      <c r="I88" s="1" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B89" s="0" t="s">
+      <c r="B89" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E89" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F89" s="0" t="s">
+      <c r="E89" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="I89" s="0" t="s">
+      <c r="I89" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="B90" s="0" t="s">
+      <c r="B90" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C90" s="0" t="s">
+      <c r="C90" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E90" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F90" s="0" t="s">
+      <c r="E90" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I90" s="0" t="s">
+      <c r="I90" s="1" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B91" s="0" t="s">
+      <c r="B91" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="E91" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F91" s="0" t="s">
+      <c r="E91" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="I91" s="0" t="s">
+      <c r="I91" s="1" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
+      <c r="A92" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B92" s="0" t="s">
+      <c r="B92" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="C92" s="0" t="s">
+      <c r="C92" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E92" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F92" s="0" t="s">
+      <c r="E92" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="I92" s="0" t="s">
+      <c r="I92" s="1" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
+      <c r="A93" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="C93" s="0" t="s">
+      <c r="C93" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="E93" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F93" s="0" t="s">
+      <c r="E93" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="I93" s="0" t="s">
+      <c r="I93" s="1" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
+      <c r="A94" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C94" s="0" t="s">
+      <c r="C94" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="E94" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F94" s="0" t="s">
+      <c r="E94" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="I94" s="0" t="s">
+      <c r="I94" s="1" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
+      <c r="A95" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="C95" s="0" t="s">
+      <c r="C95" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="E95" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F95" s="0" t="s">
+      <c r="E95" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="I95" s="0" t="s">
+      <c r="I95" s="1" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
+      <c r="A96" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="C96" s="0" t="s">
+      <c r="C96" s="1" t="s">
         <v>385</v>
       </c>
-      <c r="E96" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F96" s="0" t="s">
+      <c r="E96" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="I96" s="0" t="s">
+      <c r="I96" s="1" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
+      <c r="A97" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="C97" s="0" t="s">
+      <c r="C97" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="E97" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F97" s="0" t="s">
+      <c r="E97" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="I97" s="0" t="s">
+      <c r="I97" s="1" t="s">
         <v>387</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
+      <c r="A98" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="B98" s="0" t="s">
+      <c r="B98" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C98" s="0" t="s">
+      <c r="C98" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="E98" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F98" s="0" t="s">
+      <c r="E98" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="I98" s="0" t="s">
+      <c r="I98" s="1" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
+      <c r="A99" s="1" t="s">
         <v>396</v>
       </c>
-      <c r="C99" s="0" t="s">
+      <c r="C99" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="E99" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F99" s="0" t="s">
+      <c r="E99" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F99" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I99" s="0" t="s">
+      <c r="I99" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
+      <c r="A100" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="B100" s="0" t="s">
+      <c r="B100" s="1" t="s">
         <v>400</v>
       </c>
-      <c r="C100" s="0" t="s">
+      <c r="C100" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="E100" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F100" s="0" t="s">
+      <c r="E100" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="I100" s="0" t="s">
+      <c r="I100" s="1" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
+      <c r="A101" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="C101" s="0" t="s">
+      <c r="C101" s="1" t="s">
         <v>405</v>
       </c>
-      <c r="E101" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F101" s="0" t="s">
+      <c r="E101" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="I101" s="0" t="s">
+      <c r="I101" s="1" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
+      <c r="A102" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="B102" s="0" t="s">
+      <c r="B102" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C102" s="0" t="s">
+      <c r="C102" s="1" t="s">
         <v>410</v>
       </c>
-      <c r="E102" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F102" s="0" t="s">
+      <c r="E102" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="I102" s="0" t="s">
+      <c r="I102" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
+      <c r="A103" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B103" s="0" t="s">
+      <c r="B103" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="C103" s="0" t="s">
+      <c r="C103" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="E103" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F103" s="0" t="s">
+      <c r="E103" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F103" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="I103" s="0" t="s">
+      <c r="I103" s="1" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
+      <c r="A104" s="1" t="s">
         <v>417</v>
       </c>
-      <c r="B104" s="0" t="s">
+      <c r="B104" s="1" t="s">
         <v>418</v>
       </c>
-      <c r="C104" s="0" t="s">
+      <c r="C104" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="E104" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F104" s="0" t="s">
+      <c r="E104" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F104" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="I104" s="0" t="s">
+      <c r="I104" s="1" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
+      <c r="A105" s="1" t="s">
         <v>422</v>
       </c>
-      <c r="B105" s="0" t="s">
+      <c r="B105" s="1" t="s">
         <v>423</v>
       </c>
-      <c r="C105" s="0" t="s">
+      <c r="C105" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="E105" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F105" s="0" t="s">
+      <c r="E105" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="I105" s="0" t="s">
+      <c r="I105" s="1" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
+      <c r="A106" s="1" t="s">
         <v>427</v>
       </c>
-      <c r="B106" s="0" t="s">
+      <c r="B106" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="C106" s="0" t="s">
+      <c r="C106" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="E106" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F106" s="0" t="s">
+      <c r="E106" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="I106" s="0" t="s">
+      <c r="I106" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
+      <c r="A107" s="1" t="s">
         <v>431</v>
       </c>
-      <c r="B107" s="0" t="s">
+      <c r="B107" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C107" s="0" t="s">
+      <c r="C107" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="E107" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F107" s="0" t="s">
+      <c r="E107" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I107" s="0" t="s">
+      <c r="I107" s="1" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
+      <c r="A108" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C108" s="0" t="s">
+      <c r="C108" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="E108" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" s="0" t="s">
+      <c r="E108" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="I108" s="0" t="s">
+      <c r="I108" s="1" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
+      <c r="A109" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C109" s="0" t="s">
+      <c r="C109" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="E109" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F109" s="0" t="s">
+      <c r="E109" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F109" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="I109" s="0" t="s">
+      <c r="I109" s="1" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
+      <c r="A110" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B110" s="0" t="s">
+      <c r="B110" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C110" s="0" t="s">
+      <c r="C110" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="E110" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F110" s="0" t="s">
+      <c r="E110" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F110" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="I110" s="0" t="s">
+      <c r="I110" s="1" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
+      <c r="A111" s="1" t="s">
         <v>449</v>
       </c>
-      <c r="B111" s="0" t="s">
+      <c r="B111" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="E111" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" s="0" t="s">
+      <c r="E111" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="I111" s="0" t="s">
+      <c r="I111" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
+      <c r="A112" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="C112" s="0" t="s">
+      <c r="C112" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="E112" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" s="0" t="s">
+      <c r="E112" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>454</v>
       </c>
-      <c r="I112" s="0" t="s">
+      <c r="I112" s="1" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
+      <c r="A113" s="1" t="s">
         <v>456</v>
       </c>
-      <c r="C113" s="0" t="s">
+      <c r="C113" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="E113" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F113" s="0" t="s">
+      <c r="E113" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="I113" s="0" t="s">
+      <c r="I113" s="1" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
+      <c r="A114" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C114" s="0" t="s">
+      <c r="C114" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="E114" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" s="0" t="s">
+      <c r="E114" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="I114" s="0" t="s">
+      <c r="I114" s="1" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
+      <c r="A115" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B115" s="0" t="s">
+      <c r="B115" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="C115" s="0" t="s">
+      <c r="C115" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="E115" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F115" s="0" t="s">
+      <c r="E115" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="I115" s="0" t="s">
+      <c r="I115" s="1" t="s">
         <v>468</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
+      <c r="A116" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="C116" s="0" t="s">
+      <c r="C116" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="E116" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" s="0" t="s">
+      <c r="E116" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="I116" s="0" t="s">
+      <c r="I116" s="1" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
+      <c r="A117" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B117" s="0" t="s">
+      <c r="B117" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="C117" s="0" t="s">
+      <c r="C117" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="E117" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" s="0" t="s">
+      <c r="E117" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="I117" s="0" t="s">
+      <c r="I117" s="1" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
+      <c r="A118" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="C118" s="0" t="s">
+      <c r="C118" s="1" t="s">
         <v>479</v>
       </c>
-      <c r="E118" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" s="0" t="s">
+      <c r="E118" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="I118" s="0" t="s">
+      <c r="I118" s="1" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
+      <c r="A119" s="1" t="s">
         <v>482</v>
       </c>
-      <c r="C119" s="0" t="s">
+      <c r="C119" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="E119" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F119" s="0" t="s">
+      <c r="E119" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="I119" s="0" t="s">
+      <c r="I119" s="1" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
+      <c r="A120" s="1" t="s">
         <v>486</v>
       </c>
-      <c r="C120" s="0" t="s">
+      <c r="C120" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="E120" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F120" s="0" t="s">
+      <c r="E120" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="I120" s="0" t="s">
+      <c r="I120" s="1" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
+      <c r="A121" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="C121" s="0" t="s">
+      <c r="C121" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="E121" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F121" s="0" t="s">
+      <c r="E121" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F121" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="I121" s="0" t="s">
+      <c r="I121" s="1" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
+      <c r="A122" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="C122" s="0" t="s">
+      <c r="C122" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="E122" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F122" s="0" t="s">
+      <c r="E122" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F122" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="I122" s="0" t="s">
+      <c r="I122" s="1" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
+      <c r="A123" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B123" s="0" t="s">
+      <c r="B123" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="E123" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F123" s="0" t="s">
+      <c r="E123" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="I123" s="0" t="s">
+      <c r="I123" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
+      <c r="A124" s="1" t="s">
         <v>500</v>
       </c>
-      <c r="B124" s="0" t="s">
+      <c r="B124" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C124" s="0" t="s">
+      <c r="C124" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="E124" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F124" s="0" t="s">
+      <c r="E124" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="I124" s="0" t="s">
+      <c r="I124" s="1" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
+      <c r="A125" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C125" s="0" t="s">
+      <c r="C125" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="E125" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" s="0" t="s">
+      <c r="E125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="I125" s="0" t="s">
+      <c r="I125" s="1" t="s">
         <v>508</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
+      <c r="A126" s="1" t="s">
         <v>509</v>
       </c>
-      <c r="C126" s="0" t="s">
+      <c r="C126" s="1" t="s">
         <v>510</v>
       </c>
-      <c r="E126" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" s="0" t="s">
+      <c r="E126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="I126" s="0" t="s">
+      <c r="I126" s="1" t="s">
         <v>512</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
+      <c r="A127" s="1" t="s">
         <v>513</v>
       </c>
-      <c r="C127" s="0" t="s">
+      <c r="C127" s="1" t="s">
         <v>514</v>
       </c>
-      <c r="E127" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" s="0" t="s">
+      <c r="E127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="I127" s="0" t="s">
+      <c r="I127" s="1" t="s">
         <v>516</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
+      <c r="A128" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="C128" s="0" t="s">
+      <c r="C128" s="1" t="s">
         <v>518</v>
       </c>
-      <c r="E128" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F128" s="0" t="s">
+      <c r="E128" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F128" s="1" t="s">
         <v>519</v>
       </c>
-      <c r="I128" s="0" t="s">
+      <c r="I128" s="1" t="s">
         <v>520</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
+      <c r="A129" s="1" t="s">
         <v>521</v>
       </c>
-      <c r="C129" s="0" t="s">
+      <c r="C129" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="E129" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" s="0" t="s">
+      <c r="E129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1" t="s">
         <v>523</v>
       </c>
-      <c r="I129" s="0" t="s">
+      <c r="I129" s="1" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
+      <c r="A130" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C130" s="0" t="s">
+      <c r="C130" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="E130" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" s="0" t="s">
+      <c r="E130" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="I130" s="0" t="s">
+      <c r="I130" s="1" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
+      <c r="A131" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="C131" s="0" t="s">
+      <c r="C131" s="1" t="s">
         <v>530</v>
       </c>
-      <c r="E131" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" s="0" t="s">
+      <c r="E131" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="I131" s="0" t="s">
+      <c r="I131" s="1" t="s">
         <v>532</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
+      <c r="A132" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="B132" s="0" t="s">
+      <c r="B132" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="C132" s="0" t="s">
+      <c r="C132" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="E132" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F132" s="0" t="s">
+      <c r="E132" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="I132" s="0" t="s">
+      <c r="I132" s="1" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
+      <c r="A133" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="C133" s="0" t="s">
+      <c r="C133" s="1" t="s">
         <v>539</v>
       </c>
-      <c r="E133" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" s="0" t="s">
+      <c r="E133" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="I133" s="0" t="s">
+      <c r="I133" s="1" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
+      <c r="A134" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="C134" s="0" t="s">
+      <c r="C134" s="1" t="s">
         <v>543</v>
       </c>
-      <c r="E134" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F134" s="0" t="s">
+      <c r="E134" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="I134" s="0" t="s">
+      <c r="I134" s="1" t="s">
         <v>545</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
+      <c r="A135" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="B135" s="0" t="s">
+      <c r="B135" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="E135" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" s="0" t="s">
+      <c r="E135" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="I135" s="0" t="s">
+      <c r="I135" s="1" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
+      <c r="A136" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C136" s="0" t="s">
+      <c r="C136" s="1" t="s">
         <v>551</v>
       </c>
-      <c r="E136" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F136" s="0" t="s">
+      <c r="E136" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="I136" s="0" t="s">
+      <c r="I136" s="1" t="s">
         <v>553</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
+      <c r="A137" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="B137" s="0" t="s">
+      <c r="B137" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C137" s="0" t="s">
+      <c r="C137" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="E137" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F137" s="0" t="s">
+      <c r="E137" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="I137" s="0" t="s">
+      <c r="I137" s="1" t="s">
         <v>558</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
+      <c r="A138" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="B138" s="0" t="s">
+      <c r="B138" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="E138" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F138" s="0" t="s">
+      <c r="E138" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="I138" s="0" t="s">
+      <c r="I138" s="1" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
+      <c r="A139" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="B139" s="0" t="s">
+      <c r="B139" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="E139" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F139" s="0" t="s">
+      <c r="E139" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>564</v>
       </c>
-      <c r="I139" s="0" t="s">
+      <c r="I139" s="1" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
+      <c r="A140" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="1" t="s">
         <v>566</v>
       </c>
-      <c r="C140" s="0" t="s">
+      <c r="C140" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="E140" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F140" s="0" t="s">
+      <c r="E140" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="I140" s="0" t="s">
+      <c r="I140" s="1" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
+      <c r="A141" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="B141" s="0" t="s">
+      <c r="B141" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C141" s="0" t="s">
+      <c r="C141" s="1" t="s">
         <v>572</v>
       </c>
-      <c r="E141" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F141" s="0" t="s">
+      <c r="E141" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="I141" s="0" t="s">
+      <c r="I141" s="1" t="s">
         <v>574</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
+      <c r="A142" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="C142" s="0" t="s">
+      <c r="C142" s="1" t="s">
         <v>576</v>
       </c>
-      <c r="E142" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F142" s="0" t="s">
+      <c r="E142" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F142" s="1" t="s">
         <v>577</v>
       </c>
-      <c r="I142" s="0" t="s">
+      <c r="I142" s="1" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
+      <c r="A143" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="C143" s="0" t="s">
+      <c r="C143" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="E143" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F143" s="0" t="s">
+      <c r="E143" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>581</v>
       </c>
-      <c r="I143" s="0" t="s">
+      <c r="I143" s="1" t="s">
         <v>582</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
+      <c r="A144" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="B144" s="0" t="s">
+      <c r="B144" s="1" t="s">
         <v>584</v>
       </c>
-      <c r="C144" s="0" t="s">
+      <c r="C144" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="E144" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F144" s="0" t="s">
+      <c r="E144" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" s="1" t="s">
         <v>586</v>
       </c>
-      <c r="I144" s="0" t="s">
+      <c r="I144" s="1" t="s">
         <v>587</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
+      <c r="A145" s="1" t="s">
         <v>588</v>
       </c>
-      <c r="B145" s="0" t="s">
+      <c r="B145" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="E145" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F145" s="0" t="s">
+      <c r="E145" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="I145" s="0" t="s">
+      <c r="I145" s="1" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
+      <c r="A146" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="C146" s="0" t="s">
+      <c r="C146" s="1" t="s">
         <v>592</v>
       </c>
-      <c r="E146" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F146" s="0" t="s">
+      <c r="E146" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>593</v>
       </c>
-      <c r="I146" s="0" t="s">
+      <c r="I146" s="1" t="s">
         <v>594</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
+      <c r="A147" s="1" t="s">
         <v>595</v>
       </c>
-      <c r="B147" s="0" t="s">
+      <c r="B147" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="E147" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F147" s="0" t="s">
+      <c r="E147" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F147" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="I147" s="0" t="s">
+      <c r="I147" s="1" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
+      <c r="A148" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="C148" s="0" t="s">
+      <c r="C148" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="E148" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F148" s="0" t="s">
+      <c r="E148" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="I148" s="0" t="s">
+      <c r="I148" s="1" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
+      <c r="A149" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="B149" s="0" t="s">
+      <c r="B149" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="E149" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F149" s="0" t="s">
+      <c r="E149" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>604</v>
       </c>
-      <c r="I149" s="0" t="s">
+      <c r="I149" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
+      <c r="A150" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="C150" s="0" t="s">
+      <c r="C150" s="1" t="s">
         <v>606</v>
       </c>
-      <c r="E150" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F150" s="0" t="s">
+      <c r="E150" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="I150" s="0" t="s">
+      <c r="I150" s="1" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
+      <c r="A151" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="C151" s="0" t="s">
+      <c r="C151" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="E151" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F151" s="0" t="s">
+      <c r="E151" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="I151" s="0" t="s">
+      <c r="I151" s="1" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
+      <c r="A152" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="C152" s="0" t="s">
+      <c r="C152" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="E152" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F152" s="0" t="s">
+      <c r="E152" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="I152" s="0" t="s">
+      <c r="I152" s="1" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
+      <c r="A153" s="1" t="s">
         <v>617</v>
       </c>
-      <c r="C153" s="0" t="s">
+      <c r="C153" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="E153" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F153" s="0" t="s">
+      <c r="E153" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>619</v>
       </c>
-      <c r="I153" s="0" t="s">
+      <c r="I153" s="1" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
+      <c r="A154" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="B154" s="0" t="s">
+      <c r="B154" s="1" t="s">
         <v>621</v>
       </c>
-      <c r="C154" s="0" t="s">
+      <c r="C154" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="E154" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F154" s="0" t="s">
+      <c r="E154" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="I154" s="0" t="s">
+      <c r="I154" s="1" t="s">
         <v>624</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
+      <c r="A155" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="C155" s="0" t="s">
+      <c r="C155" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="E155" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F155" s="0" t="s">
+      <c r="E155" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="I155" s="0" t="s">
+      <c r="I155" s="1" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
+      <c r="A156" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="B156" s="0" t="s">
+      <c r="B156" s="1" t="s">
         <v>630</v>
       </c>
-      <c r="C156" s="0" t="s">
+      <c r="C156" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="E156" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F156" s="0" t="s">
+      <c r="E156" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" s="1" t="s">
         <v>632</v>
       </c>
-      <c r="I156" s="0" t="s">
+      <c r="I156" s="1" t="s">
         <v>633</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
+      <c r="A157" s="1" t="s">
         <v>634</v>
       </c>
-      <c r="C157" s="0" t="s">
+      <c r="C157" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="E157" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F157" s="0" t="s">
+      <c r="E157" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="I157" s="0" t="s">
+      <c r="I157" s="1" t="s">
         <v>637</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
+      <c r="A158" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="B158" s="0" t="s">
+      <c r="B158" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="C158" s="0" t="s">
+      <c r="C158" s="1" t="s">
         <v>640</v>
       </c>
-      <c r="E158" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F158" s="0" t="s">
+      <c r="E158" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F158" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="I158" s="0" t="s">
+      <c r="I158" s="1" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
+      <c r="A159" s="1" t="s">
         <v>643</v>
       </c>
-      <c r="B159" s="0" t="s">
+      <c r="B159" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="E159" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F159" s="0" t="s">
+      <c r="E159" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" s="1" t="s">
         <v>645</v>
       </c>
-      <c r="I159" s="0" t="s">
+      <c r="I159" s="1" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
+      <c r="A160" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="C160" s="0" t="s">
+      <c r="C160" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="E160" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F160" s="0" t="s">
+      <c r="E160" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F160" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="I160" s="0" t="s">
+      <c r="I160" s="1" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
+      <c r="A161" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="C161" s="0" t="s">
+      <c r="C161" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="E161" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F161" s="0" t="s">
+      <c r="E161" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F161" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="I161" s="0" t="s">
+      <c r="I161" s="1" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
+      <c r="A162" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="C162" s="0" t="s">
+      <c r="C162" s="1" t="s">
         <v>655</v>
       </c>
-      <c r="E162" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F162" s="0" t="s">
+      <c r="E162" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="I162" s="0" t="s">
+      <c r="I162" s="1" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
+      <c r="A163" s="1" t="s">
         <v>658</v>
       </c>
-      <c r="C163" s="0" t="s">
+      <c r="C163" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="E163" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F163" s="0" t="s">
+      <c r="E163" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F163" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="I163" s="0" t="s">
+      <c r="I163" s="1" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
+      <c r="A164" s="1" t="s">
         <v>662</v>
       </c>
-      <c r="C164" s="0" t="s">
+      <c r="C164" s="1" t="s">
         <v>663</v>
       </c>
-      <c r="E164" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F164" s="0" t="s">
+      <c r="E164" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F164" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="I164" s="0" t="s">
+      <c r="I164" s="1" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
+      <c r="A165" s="1" t="s">
         <v>666</v>
       </c>
-      <c r="C165" s="0" t="s">
+      <c r="C165" s="1" t="s">
         <v>667</v>
       </c>
-      <c r="E165" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F165" s="0" t="s">
+      <c r="E165" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="I165" s="0" t="s">
+      <c r="I165" s="1" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
+      <c r="A166" s="1" t="s">
         <v>670</v>
       </c>
-      <c r="C166" s="0" t="s">
+      <c r="C166" s="1" t="s">
         <v>671</v>
       </c>
-      <c r="E166" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F166" s="0" t="s">
+      <c r="E166" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="I166" s="0" t="s">
+      <c r="I166" s="1" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
+      <c r="A167" s="1" t="s">
         <v>674</v>
       </c>
-      <c r="C167" s="0" t="s">
+      <c r="C167" s="1" t="s">
         <v>675</v>
       </c>
-      <c r="E167" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F167" s="0" t="s">
+      <c r="E167" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="I167" s="0" t="s">
+      <c r="I167" s="1" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
+      <c r="A168" s="1" t="s">
         <v>678</v>
       </c>
-      <c r="C168" s="0" t="s">
+      <c r="C168" s="1" t="s">
         <v>679</v>
       </c>
-      <c r="E168" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F168" s="0" t="s">
+      <c r="E168" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>680</v>
       </c>
-      <c r="I168" s="0" t="s">
+      <c r="I168" s="1" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
+      <c r="A169" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="C169" s="0" t="s">
+      <c r="C169" s="1" t="s">
         <v>683</v>
       </c>
-      <c r="E169" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F169" s="0" t="s">
+      <c r="E169" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>684</v>
       </c>
-      <c r="I169" s="0" t="s">
+      <c r="I169" s="1" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
+      <c r="A170" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="B170" s="0" t="s">
+      <c r="B170" s="1" t="s">
         <v>687</v>
       </c>
-      <c r="E170" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F170" s="0" t="s">
+      <c r="E170" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>688</v>
       </c>
-      <c r="I170" s="0" t="s">
+      <c r="I170" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
+      <c r="A171" s="1" t="s">
         <v>689</v>
       </c>
-      <c r="C171" s="0" t="s">
+      <c r="C171" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="E171" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F171" s="0" t="s">
+      <c r="E171" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>691</v>
       </c>
-      <c r="I171" s="0" t="s">
+      <c r="I171" s="1" t="s">
         <v>692</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
+      <c r="A172" s="1" t="s">
         <v>693</v>
       </c>
-      <c r="C172" s="0" t="s">
+      <c r="C172" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E172" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F172" s="0" t="s">
+      <c r="E172" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="I172" s="0" t="s">
+      <c r="I172" s="1" t="s">
         <v>695</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
+      <c r="A173" s="1" t="s">
         <v>696</v>
       </c>
-      <c r="C173" s="0" t="s">
+      <c r="C173" s="1" t="s">
         <v>697</v>
       </c>
-      <c r="E173" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F173" s="0" t="s">
+      <c r="E173" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>698</v>
       </c>
-      <c r="I173" s="0" t="s">
+      <c r="I173" s="1" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
+      <c r="A174" s="1" t="s">
         <v>700</v>
       </c>
-      <c r="C174" s="0" t="s">
+      <c r="C174" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="E174" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F174" s="0" t="s">
+      <c r="E174" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="I174" s="0" t="s">
+      <c r="I174" s="1" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
+      <c r="A175" s="1" t="s">
         <v>704</v>
       </c>
-      <c r="C175" s="0" t="s">
+      <c r="C175" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="E175" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F175" s="0" t="s">
+      <c r="E175" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>706</v>
       </c>
-      <c r="I175" s="0" t="s">
+      <c r="I175" s="1" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
+      <c r="A176" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="C176" s="0" t="s">
+      <c r="C176" s="1" t="s">
         <v>709</v>
       </c>
-      <c r="E176" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F176" s="0" t="s">
+      <c r="E176" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="I176" s="0" t="s">
+      <c r="I176" s="1" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
+      <c r="A177" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="C177" s="0" t="s">
+      <c r="C177" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="E177" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F177" s="0" t="s">
+      <c r="E177" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" s="1" t="s">
         <v>714</v>
       </c>
-      <c r="I177" s="0" t="s">
+      <c r="I177" s="1" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
+      <c r="A178" s="1" t="s">
         <v>716</v>
       </c>
-      <c r="B178" s="0" t="s">
+      <c r="B178" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="C178" s="0" t="s">
+      <c r="C178" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="E178" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F178" s="0" t="s">
+      <c r="E178" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F178" s="1" t="s">
         <v>719</v>
       </c>
-      <c r="I178" s="0" t="s">
+      <c r="I178" s="1" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
+      <c r="A179" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="B179" s="0" t="s">
+      <c r="B179" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="C179" s="0" t="s">
+      <c r="C179" s="1" t="s">
         <v>723</v>
       </c>
-      <c r="E179" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F179" s="0" t="s">
+      <c r="E179" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F179" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="I179" s="0" t="s">
+      <c r="I179" s="1" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
+      <c r="A180" s="1" t="s">
         <v>726</v>
       </c>
-      <c r="C180" s="0" t="s">
+      <c r="C180" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="E180" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F180" s="0" t="s">
+      <c r="E180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="I180" s="0" t="s">
+      <c r="I180" s="1" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
+      <c r="A181" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="C181" s="0" t="s">
+      <c r="C181" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="E181" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F181" s="0" t="s">
+      <c r="E181" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>732</v>
       </c>
-      <c r="I181" s="0" t="s">
+      <c r="I181" s="1" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
+      <c r="A182" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="C182" s="0" t="s">
+      <c r="C182" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="E182" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F182" s="0" t="s">
+      <c r="E182" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="I182" s="0" t="s">
+      <c r="I182" s="1" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
+      <c r="A183" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="B183" s="0" t="s">
+      <c r="B183" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="E183" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F183" s="0" t="s">
+      <c r="E183" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="I183" s="0" t="s">
+      <c r="I183" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
+      <c r="A184" s="1" t="s">
         <v>741</v>
       </c>
-      <c r="C184" s="0" t="s">
+      <c r="C184" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="E184" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F184" s="0" t="s">
+      <c r="E184" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F184" s="1" t="s">
         <v>743</v>
       </c>
-      <c r="I184" s="0" t="s">
+      <c r="I184" s="1" t="s">
         <v>744</v>
       </c>
     </row>
@@ -5853,339 +5858,339 @@
   </sheetPr>
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="B25" s="0" t="s">
+      <c r="B25" s="1" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>771</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>773</v>
       </c>
-      <c r="B28" s="0" t="s">
+      <c r="B28" s="1" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="B29" s="0" t="s">
+      <c r="B29" s="1" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>786</v>
       </c>
-      <c r="B41" s="0" t="s">
+      <c r="B41" s="1" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>790</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>794</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="B50" s="0" t="s">
+      <c r="B50" s="1" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>797</v>
       </c>
-      <c r="B51" s="0" t="s">
+      <c r="B51" s="1" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>800</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>801</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>803</v>
       </c>
     </row>

--- a/upload.xlsx
+++ b/upload.xlsx
@@ -6,14 +6,36 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="notes" r:id="rId3" sheetId="1"/>
-    <sheet name="ENGLISH" r:id="rId4" sheetId="2"/>
+    <sheet name="tags" r:id="rId3" sheetId="1"/>
+    <sheet name="notes" r:id="rId4" sheetId="2"/>
+    <sheet name="ENGLISH" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="379">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>essentialism</t>
+  </si>
+  <si>
+    <t>discipline</t>
+  </si>
+  <si>
+    <t>mindset</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>competition</t>
+  </si>
   <si>
     <t>content</t>
   </si>
@@ -24,292 +46,280 @@
     <t>last seen at</t>
   </si>
   <si>
+    <t>What do I want to go big on?</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.044</t>
+  </si>
+  <si>
+    <t>The faintest pencil is better than the strongest memory</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.05</t>
+  </si>
+  <si>
+    <t>A little nonsense now and then is cherished by the wisest men</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.055</t>
+  </si>
+  <si>
+    <t>Your health is your greatest wealth</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.061</t>
+  </si>
+  <si>
+    <t>Escape to quiet thinking and boredom</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.067</t>
+  </si>
+  <si>
+    <t>Ultimate focus. Eliminate distractions</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.074</t>
+  </si>
+  <si>
+    <t>Exceptional people are built in solitude</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.08</t>
+  </si>
+  <si>
+    <t>The magic is that there is no magic. Start where you are. Don't stop</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.087</t>
+  </si>
+  <si>
+    <t>Not lack of time, but lack of direction</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.093</t>
+  </si>
+  <si>
+    <t>Be humble, stay hungry</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.1</t>
+  </si>
+  <si>
+    <t>Saying what you mean and meaning what you say</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.108</t>
+  </si>
+  <si>
+    <t>If it isn't a clear yes, then it's a clear no</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.119</t>
+  </si>
+  <si>
+    <t>To follow, without halt, one aim: there is the secret to success</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.127</t>
+  </si>
+  <si>
+    <t>Half of the troubles of this life can be traced to saying yes too quickly and not saying no soon enough</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.135</t>
+  </si>
+  <si>
+    <t>Less but better</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.144</t>
+  </si>
+  <si>
+    <t>The main thing is to keep the main thing the main thing</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.151</t>
+  </si>
+  <si>
+    <t>Comfortable with cutting losses</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.159</t>
+  </si>
+  <si>
+    <t>Stop making casual commitments</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.166</t>
+  </si>
+  <si>
+    <t>Pause before you speak</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.174</t>
+  </si>
+  <si>
+    <t>Get over the fear of missing out</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.181</t>
+  </si>
+  <si>
+    <t>I saw the angel in the marble and carved until I set him free</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.189</t>
+  </si>
+  <si>
+    <t>No is a complete sentence</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.197</t>
+  </si>
+  <si>
+    <t>If you don't set boundaries - there won't be any</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.204</t>
+  </si>
+  <si>
+    <t>Give me 6 hours to chop down a tree and I will spend the first 4 sharpening the axe</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.212</t>
+  </si>
+  <si>
+    <t>The only thing we can expect (with any great certainty) is the unexpected</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.22</t>
+  </si>
+  <si>
+    <t>To attain knowledge add things every day. To attain wisdom subtract things every day</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.228</t>
+  </si>
+  <si>
+    <t>All it takes is a small shove, then momentum will naturally build</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.241</t>
+  </si>
+  <si>
+    <t>Look for small changes you can do in areas you do often. There is power in steadiness and repetition</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.255</t>
+  </si>
+  <si>
+    <t>Done is better than perfect</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.266</t>
+  </si>
+  <si>
+    <t>Routine, in an intelligent man, is a sign of ambition</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.279</t>
+  </si>
+  <si>
+    <t>Routine eliminates nonessential distractions and enshrines the essentials</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.29</t>
+  </si>
+  <si>
+    <t>Do the most difficult thing first</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.302</t>
+  </si>
+  <si>
+    <t>Get the future out of your head</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.314</t>
+  </si>
+  <si>
+    <t>Clarity equals success</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.326</t>
+  </si>
+  <si>
+    <t>Same habits, same results</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.339</t>
+  </si>
+  <si>
+    <t>Changes that seem small and unimportant at first will compound into remarkable results if you are willing to stick with them for years</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.352</t>
+  </si>
+  <si>
+    <t>In the long run, the quality of our lives often depends on the quality of our habits</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.365</t>
+  </si>
+  <si>
+    <t>Mastery requires patience</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.378</t>
+  </si>
+  <si>
+    <t>Goals are good for setting a direction, but systems are best for making progress</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.39</t>
+  </si>
+  <si>
+    <t>True behavior change is identity change</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.401</t>
+  </si>
+  <si>
+    <t>Habits create freedom</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.412</t>
+  </si>
+  <si>
+    <t>Simple is better than complex</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.423</t>
+  </si>
+  <si>
+    <t>Complex is better than complicated</t>
+  </si>
+  <si>
+    <t>2022-02-15 17:59:18.434</t>
+  </si>
+  <si>
     <t>Without great solitude no serious work is possible</t>
   </si>
   <si>
-    <t>2022-02-15 17:59:17.958</t>
+    <t>2022-02-16 00:04:10.79</t>
   </si>
   <si>
     <t>Distinguish the vital few from the trivial many</t>
   </si>
   <si>
-    <t>2022-02-15 17:59:18.02</t>
-  </si>
-  <si>
     <t>Living by design, not by default</t>
   </si>
   <si>
-    <t>2022-02-15 17:59:18.026</t>
-  </si>
-  <si>
     <t>Sometimes what you don't do is just as important as what you do</t>
   </si>
   <si>
-    <t>2022-02-15 17:59:18.032</t>
-  </si>
-  <si>
     <t>Saying yes to any opportunity by definition requires saying no to several others</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.038</t>
-  </si>
-  <si>
-    <t>What do I want to go big on?</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.044</t>
-  </si>
-  <si>
-    <t>The faintest pencil is better than the strongest memory</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.05</t>
-  </si>
-  <si>
-    <t>A little nonsense now and then is cherished by the wisest men</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.055</t>
-  </si>
-  <si>
-    <t>Your health is your greatest wealth</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.061</t>
-  </si>
-  <si>
-    <t>Escape to quiet thinking and boredom</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.067</t>
-  </si>
-  <si>
-    <t>Ultimate focus. Eliminate distractions</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.074</t>
-  </si>
-  <si>
-    <t>Exceptional people are built in solitude</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.08</t>
-  </si>
-  <si>
-    <t>The magic is that there is no magic. Start where you are. Don't stop</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.087</t>
-  </si>
-  <si>
-    <t>Not lack of time, but lack of direction</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.093</t>
-  </si>
-  <si>
-    <t>Be humble, stay hungry</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.1</t>
-  </si>
-  <si>
-    <t>Saying what you mean and meaning what you say</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.108</t>
-  </si>
-  <si>
-    <t>If it isn't a clear yes, then it's a clear no</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.119</t>
-  </si>
-  <si>
-    <t>To follow, without halt, one aim: there is the secret to success</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.127</t>
-  </si>
-  <si>
-    <t>Half of the troubles of this life can be traced to saying yes too quickly and not saying no soon enough</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.135</t>
-  </si>
-  <si>
-    <t>Less but better</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.144</t>
-  </si>
-  <si>
-    <t>The main thing is to keep the main thing the main thing</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.151</t>
-  </si>
-  <si>
-    <t>Comfortable with cutting losses</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.159</t>
-  </si>
-  <si>
-    <t>Stop making casual commitments</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.166</t>
-  </si>
-  <si>
-    <t>Pause before you speak</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.174</t>
-  </si>
-  <si>
-    <t>Get over the fear of missing out</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.181</t>
-  </si>
-  <si>
-    <t>I saw the angel in the marble and carved until I set him free</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.189</t>
-  </si>
-  <si>
-    <t>No is a complete sentence</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.197</t>
-  </si>
-  <si>
-    <t>If you don't set boundaries - there won't be any</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.204</t>
-  </si>
-  <si>
-    <t>Give me 6 hours to chop down a tree and I will spend the first 4 sharpening the axe</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.212</t>
-  </si>
-  <si>
-    <t>The only thing we can expect (with any great certainty) is the unexpected</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.22</t>
-  </si>
-  <si>
-    <t>To attain knowledge add things every day. To attain wisdom subtract things every day</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.228</t>
-  </si>
-  <si>
-    <t>All it takes is a small shove, then momentum will naturally build</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.241</t>
-  </si>
-  <si>
-    <t>Look for small changes you can do in areas you do often. There is power in steadiness and repetition</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.255</t>
-  </si>
-  <si>
-    <t>Done is better than perfect</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.266</t>
-  </si>
-  <si>
-    <t>Routine, in an intelligent man, is a sign of ambition</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.279</t>
-  </si>
-  <si>
-    <t>Routine eliminates nonessential distractions and enshrines the essentials</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.29</t>
-  </si>
-  <si>
-    <t>Do the most difficult thing first</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.302</t>
-  </si>
-  <si>
-    <t>Get the future out of your head</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.314</t>
-  </si>
-  <si>
-    <t>Clarity equals success</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.326</t>
-  </si>
-  <si>
-    <t>Same habits, same results</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.339</t>
-  </si>
-  <si>
-    <t>Changes that seem small and unimportant at first will compound into remarkable results if you are willing to stick with them for years</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.352</t>
-  </si>
-  <si>
-    <t>In the long run, the quality of our lives often depends on the quality of our habits</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.365</t>
-  </si>
-  <si>
-    <t>Mastery requires patience</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.378</t>
-  </si>
-  <si>
-    <t>Goals are good for setting a direction, but systems are best for making progress</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.39</t>
-  </si>
-  <si>
-    <t>True behavior change is identity change</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.401</t>
-  </si>
-  <si>
-    <t>Habits create freedom</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.412</t>
-  </si>
-  <si>
-    <t>Simple is better than complex</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.423</t>
-  </si>
-  <si>
-    <t>Complex is better than complicated</t>
-  </si>
-  <si>
-    <t>2022-02-15 17:59:18.434</t>
   </si>
   <si>
     <t>word</t>
@@ -1185,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1195,395 +1205,35 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C28" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>71</v>
-      </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C39" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>83</v>
-      </c>
-      <c r="C42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>87</v>
-      </c>
-      <c r="C44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>93</v>
-      </c>
-      <c r="C47" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="s">
-        <v>97</v>
-      </c>
-      <c r="C49" t="s">
-        <v>98</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1592,6 +1242,414 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:C49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="C45" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>101</v>
+      </c>
+      <c r="C49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:G85"/>
   <sheetViews>
@@ -1601,1453 +1659,1453 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="E1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D3" t="n">
         <v>1.0</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D4" t="n">
         <v>1.0</v>
       </c>
       <c r="G4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D5" t="n">
         <v>0.0</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D6" t="n">
         <v>1.0</v>
       </c>
       <c r="G6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D7" t="n">
         <v>1.0</v>
       </c>
       <c r="G7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D8" t="n">
         <v>1.0</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D9" t="n">
         <v>0.0</v>
       </c>
       <c r="G9" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D10" t="n">
         <v>1.0</v>
       </c>
       <c r="G10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B11" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D11" t="n">
         <v>1.0</v>
       </c>
       <c r="G11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C12" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D12" t="n">
         <v>1.0</v>
       </c>
       <c r="G12" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B13" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D13" t="n">
         <v>1.0</v>
       </c>
       <c r="G13" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C14" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D14" t="n">
         <v>1.0</v>
       </c>
       <c r="G14" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B15" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D15" t="n">
         <v>0.0</v>
       </c>
       <c r="G15" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D16" t="n">
         <v>1.0</v>
       </c>
       <c r="G16" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D17" t="n">
         <v>1.0</v>
       </c>
       <c r="G17" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D18" t="n">
         <v>1.0</v>
       </c>
       <c r="G18" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D19" t="n">
         <v>0.0</v>
       </c>
       <c r="G19" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D20" t="n">
         <v>1.0</v>
       </c>
       <c r="G20" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C21" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D21" t="n">
         <v>1.0</v>
       </c>
       <c r="G21" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C22" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D22" t="n">
         <v>1.0</v>
       </c>
       <c r="G22" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D23" t="n">
         <v>1.0</v>
       </c>
       <c r="G23" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D24" t="n">
         <v>1.0</v>
       </c>
       <c r="G24" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D25" t="n">
         <v>1.0</v>
       </c>
       <c r="G25" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D26" t="n">
         <v>0.0</v>
       </c>
       <c r="G26" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D27" t="n">
         <v>1.0</v>
       </c>
       <c r="G27" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D28" t="n">
         <v>0.0</v>
       </c>
       <c r="G28" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D29" t="n">
         <v>1.0</v>
       </c>
       <c r="G29" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C30" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D30" t="n">
         <v>1.0</v>
       </c>
       <c r="G30" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C31" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D31" t="n">
         <v>0.0</v>
       </c>
       <c r="G31" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B32" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C32" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D32" t="n">
         <v>1.0</v>
       </c>
       <c r="G32" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D33" t="n">
         <v>1.0</v>
       </c>
       <c r="G33" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D34" t="n">
         <v>1.0</v>
       </c>
       <c r="G34" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D35" t="n">
         <v>1.0</v>
       </c>
       <c r="G35" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B36" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C36" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D36" t="n">
         <v>1.0</v>
       </c>
       <c r="G36" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D37" t="n">
         <v>1.0</v>
       </c>
       <c r="G37" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B38" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C38" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D38" t="n">
         <v>1.0</v>
       </c>
       <c r="G38" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="D39" t="n">
         <v>0.0</v>
       </c>
       <c r="G39" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C40" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="D40" t="n">
         <v>1.0</v>
       </c>
       <c r="G40" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D41" t="n">
         <v>0.0</v>
       </c>
       <c r="G41" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="B42" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="D42" t="n">
         <v>1.0</v>
       </c>
       <c r="G42" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="D43" t="n">
         <v>0.0</v>
       </c>
       <c r="G43" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="D44" t="n">
         <v>0.0</v>
       </c>
       <c r="G44" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C45" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="D45" t="n">
         <v>1.0</v>
       </c>
       <c r="G45" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C46" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D46" t="n">
         <v>1.0</v>
       </c>
       <c r="G46" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C47" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D47" t="n">
         <v>1.0</v>
       </c>
       <c r="G47" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C48" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D48" t="n">
         <v>0.0</v>
       </c>
       <c r="G48" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C49" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="D49" t="n">
         <v>0.0</v>
       </c>
       <c r="G49" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B50" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C50" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D50" t="n">
         <v>0.0</v>
       </c>
       <c r="G50" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C51" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D51" t="n">
         <v>0.0</v>
       </c>
       <c r="G51" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B52" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C52" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D52" t="n">
         <v>0.0</v>
       </c>
       <c r="G52" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B53" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D53" t="n">
         <v>1.0</v>
       </c>
       <c r="G53" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C54" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D54" t="n">
         <v>0.0</v>
       </c>
       <c r="G54" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C55" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="D55" t="n">
         <v>1.0</v>
       </c>
       <c r="G55" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="B56" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="D56" t="n">
         <v>1.0</v>
       </c>
       <c r="G56" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D57" t="n">
         <v>0.0</v>
       </c>
       <c r="G57" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D58" t="n">
         <v>0.0</v>
       </c>
       <c r="G58" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B59" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D59" t="n">
         <v>0.0</v>
       </c>
       <c r="G59" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B60" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="D60" t="n">
         <v>1.0</v>
       </c>
       <c r="G60" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D61" t="n">
         <v>1.0</v>
       </c>
       <c r="G61" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B62" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="D62" t="n">
         <v>1.0</v>
       </c>
       <c r="G62" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B63" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D63" t="n">
         <v>1.0</v>
       </c>
       <c r="G63" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B64" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C64" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="D64" t="n">
         <v>1.0</v>
       </c>
       <c r="G64" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B65" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D65" t="n">
         <v>0.0</v>
       </c>
       <c r="G65" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B66" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="D66" t="n">
         <v>1.0</v>
       </c>
       <c r="G66" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B67" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D67" t="n">
         <v>0.0</v>
       </c>
       <c r="G67" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D68" t="n">
         <v>1.0</v>
       </c>
       <c r="G68" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B69" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D69" t="n">
         <v>0.0</v>
       </c>
       <c r="G69" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B70" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D70" t="n">
         <v>1.0</v>
       </c>
       <c r="G70" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B71" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C71" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D71" t="n">
         <v>1.0</v>
       </c>
       <c r="G71" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C72" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="D72" t="n">
         <v>0.0</v>
       </c>
       <c r="G72" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C73" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D73" t="n">
         <v>1.0</v>
       </c>
       <c r="G73" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C74" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D74" t="n">
         <v>1.0</v>
       </c>
       <c r="G74" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C75" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="D75" t="n">
         <v>1.0</v>
       </c>
       <c r="G75" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="D76" t="n">
         <v>1.0</v>
       </c>
       <c r="G76" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D77" t="n">
         <v>1.0</v>
       </c>
       <c r="G77" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B78" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C78" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D78" t="n">
         <v>0.0</v>
       </c>
       <c r="G78" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B79" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C79" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D79" t="n">
         <v>1.0</v>
       </c>
       <c r="G79" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D80" t="n">
         <v>1.0</v>
       </c>
       <c r="G80" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B81" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C81" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D81" t="n">
         <v>2.0</v>
       </c>
       <c r="G81" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B82" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D82" t="n">
         <v>2.0</v>
       </c>
       <c r="G82" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B83" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C83" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D83" t="n">
         <v>1.0</v>
       </c>
       <c r="G83" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B84" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="D84" t="n">
         <v>1.0</v>
       </c>
       <c r="G84" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B85" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C85" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D85" t="n">
         <v>1.0</v>
       </c>
       <c r="G85" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/upload.xlsx
+++ b/upload.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tags" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="notes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="ENGLISH" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="English" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="settings" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="383">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -1162,6 +1163,15 @@
   </si>
   <si>
     <t xml:space="preserve">2022-02-15 17:59:21.504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">default language name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entries per vocabulary training session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
   </si>
 </sst>
 </file>
@@ -1176,6 +1186,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1235,8 +1246,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1263,45 +1278,45 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1323,447 +1338,447 @@
   </sheetPr>
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="125.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="125.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.04"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="0" t="s">
+      <c r="B15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="B16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="0" t="s">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="0" t="s">
+      <c r="B19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="B20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1789,1261 +1804,1261 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" s="0" t="s">
+      <c r="D4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="s">
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="D15" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="s">
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="0" t="s">
+      <c r="B19" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B21" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G21" s="0" t="s">
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G22" s="0" t="s">
+      <c r="D22" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="s">
+      <c r="D23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="s">
+      <c r="D24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="s">
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B26" s="0" t="s">
+      <c r="B26" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="B27" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" s="0" t="s">
+      <c r="D27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G29" s="0" t="s">
+      <c r="D29" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D30" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G30" s="0" t="s">
+      <c r="D30" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B31" s="0" t="s">
+      <c r="B31" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="1" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D32" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="s">
+      <c r="D32" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="D33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="s">
+      <c r="D34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D35" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" s="0" t="s">
+      <c r="D35" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B36" s="0" t="s">
+      <c r="B36" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D36" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" s="0" t="s">
+      <c r="D36" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D37" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G37" s="0" t="s">
+      <c r="D37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="B38" s="0" t="s">
+      <c r="B38" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="0" t="s">
+      <c r="D38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D39" s="0" t="n">
+      <c r="D39" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G39" s="0" t="s">
+      <c r="G39" s="1" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="B40" s="0" t="s">
+      <c r="B40" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="s">
+      <c r="D40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D41" s="0" t="n">
+      <c r="D41" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G41" s="0" t="s">
+      <c r="G41" s="1" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="s">
+      <c r="D42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="1" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D44" s="0" t="n">
+      <c r="D44" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G44" s="0" t="s">
+      <c r="G44" s="1" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D45" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="s">
+      <c r="D45" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="s">
+      <c r="D46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D47" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="s">
+      <c r="D47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D48" s="0" t="n">
+      <c r="D48" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G48" s="0" t="s">
+      <c r="G48" s="1" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D49" s="0" t="n">
+      <c r="D49" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G49" s="0" t="s">
+      <c r="G49" s="1" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D51" s="0" t="n">
+      <c r="D51" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G51" s="0" t="s">
+      <c r="G51" s="1" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B52" s="0" t="s">
+      <c r="B52" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D52" s="0" t="n">
+      <c r="D52" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G52" s="0" t="s">
+      <c r="G52" s="1" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="0" t="s">
+      <c r="D53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="B54" s="0" t="s">
+      <c r="B54" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D54" s="0" t="n">
+      <c r="D54" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G54" s="0" t="s">
+      <c r="G54" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B55" s="0" t="s">
+      <c r="B55" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="0" t="s">
+      <c r="D55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="C56" s="0" t="s">
+      <c r="C56" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D56" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G56" s="0" t="s">
+      <c r="D56" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D57" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G57" s="0" t="s">
+      <c r="G57" s="1" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D58" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G58" s="0" t="s">
+      <c r="G58" s="1" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B59" s="0" t="s">
+      <c r="B59" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="1" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D60" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G60" s="0" t="s">
+      <c r="D60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="1" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="0" t="s">
+      <c r="D61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="0" t="s">
+      <c r="D62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>309</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="0" t="s">
+      <c r="D63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="B64" s="0" t="s">
+      <c r="B64" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="0" t="s">
+      <c r="D64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>316</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="B65" s="0" t="s">
+      <c r="B65" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D65" s="0" t="n">
+      <c r="D65" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G65" s="0" t="s">
+      <c r="G65" s="1" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="0" t="s">
+      <c r="D66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C67" s="0" t="s">
+      <c r="C67" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D68" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" s="0" t="s">
+      <c r="D68" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D70" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="0" t="s">
+      <c r="D70" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="D71" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" s="0" t="s">
+      <c r="D71" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="D73" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G73" s="0" t="s">
+      <c r="D73" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D74" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="0" t="s">
+      <c r="D74" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D75" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G75" s="0" t="s">
+      <c r="D75" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D76" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="0" t="s">
+      <c r="D76" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D77" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" s="0" t="s">
+      <c r="D77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" s="1" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="0" t="s">
+      <c r="D79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D80" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="0" t="s">
+      <c r="D80" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="1" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" s="1" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" s="1" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D83" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G83" s="0" t="s">
+      <c r="D83" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D84" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G84" s="0" t="s">
+      <c r="D84" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G84" s="1" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>377</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" s="0" t="s">
+      <c r="D85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>379</v>
       </c>
     </row>
@@ -3056,4 +3071,48 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.54"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/upload.xlsx
+++ b/upload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tags" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="notes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="English" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="language_English" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="settings" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -1278,7 +1278,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1342,7 +1342,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="125.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.04"/>
@@ -1800,11 +1800,11 @@
   </sheetPr>
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3080,13 +3080,13 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.54"/>
   </cols>
   <sheetData>

--- a/upload.xlsx
+++ b/upload.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="tags" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="387">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -1169,6 +1169,18 @@
   </si>
   <si>
     <t xml:space="preserve">entries per vocabulary training session</t>
+  </si>
+  <si>
+    <t xml:space="preserve">languages pagination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tags pagination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">notes pagination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vocabulary pagination</t>
   </si>
   <si>
     <t xml:space="preserve">English</t>
@@ -1278,7 +1290,7 @@
       <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1342,7 +1354,7 @@
       <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="125.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="44.04"/>
@@ -1800,11 +1812,11 @@
   </sheetPr>
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -3078,16 +3090,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="16.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.81"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3097,13 +3113,37 @@
       <c r="B1" s="0" t="s">
         <v>381</v>
       </c>
+      <c r="C1" s="0" t="s">
+        <v>382</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>6</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/upload.xlsx
+++ b/upload.xlsx
@@ -5,12 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="tags" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="notes" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="language_English" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="language_ENG" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="settings" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
@@ -1144,7 +1144,7 @@
     <t xml:space="preserve">vocabulary pagination</t>
   </si>
   <si>
-    <t xml:space="preserve">English</t>
+    <t xml:space="preserve">ENG</t>
   </si>
 </sst>
 </file>
@@ -1159,6 +1159,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1218,8 +1219,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1242,49 +1247,49 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1310,439 +1315,439 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="0" t="s">
+      <c r="B10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="0" t="s">
+      <c r="B12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="0" t="s">
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="1" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C37" s="0" t="s">
+      <c r="C37" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C43" s="0" t="s">
+      <c r="C43" s="1" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B45" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="0" t="s">
+      <c r="B46" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B47" s="0" t="s">
+      <c r="B47" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B49" s="0" t="s">
+      <c r="B49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1768,1261 +1773,1261 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="s">
+      <c r="D3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="s">
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" s="0" t="s">
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="s">
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="D9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="s">
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="s">
+      <c r="D11" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="D12" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="0" t="s">
+      <c r="D13" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="s">
+      <c r="D14" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G15" s="0" t="s">
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G16" s="0" t="s">
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B18" s="0" t="s">
+      <c r="B18" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G18" s="0" t="s">
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0" t="s">
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="1" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B23" s="0" t="s">
+      <c r="B23" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D23" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" s="0" t="s">
+      <c r="D23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G24" s="0" t="s">
+      <c r="D24" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D25" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G25" s="0" t="s">
+      <c r="D25" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D26" s="0" t="n">
+      <c r="D26" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="D27" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="1" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="1" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="D29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="1" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="B30" s="0" t="s">
+      <c r="B30" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="D30" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="1" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D31" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G31" s="0" t="s">
+      <c r="D31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B32" s="0" t="s">
+      <c r="B32" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="D32" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="1" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="0" t="s">
+      <c r="B33" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D33" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="0" t="s">
+      <c r="D33" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
+      <c r="A34" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="C34" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G34" s="0" t="s">
+      <c r="D34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
+      <c r="A35" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="C35" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D35" s="0" t="n">
+      <c r="D35" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G35" s="0" t="s">
+      <c r="G35" s="1" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
+      <c r="A36" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C36" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D36" s="0" t="n">
+      <c r="D36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G36" s="0" t="s">
+      <c r="G36" s="1" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+      <c r="A37" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B37" s="0" t="s">
+      <c r="B37" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="D37" s="0" t="n">
+      <c r="D37" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G37" s="0" t="s">
+      <c r="G37" s="1" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
+      <c r="A38" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="0" t="s">
+      <c r="C38" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D38" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G38" s="0" t="s">
+      <c r="D38" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
+      <c r="A39" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="C39" s="0" t="s">
+      <c r="C39" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D39" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" s="0" t="s">
+      <c r="D39" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
+      <c r="A40" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="C40" s="0" t="s">
+      <c r="C40" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D40" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="0" t="s">
+      <c r="D40" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
+      <c r="A41" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C41" s="0" t="s">
+      <c r="C41" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D41" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" s="0" t="s">
+      <c r="D41" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
+      <c r="A42" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B42" s="0" t="s">
+      <c r="B42" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C42" s="0" t="s">
+      <c r="C42" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="D42" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="s">
+      <c r="D42" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
+      <c r="A43" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B43" s="0" t="s">
+      <c r="B43" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D43" s="0" t="n">
+      <c r="D43" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G43" s="0" t="s">
+      <c r="G43" s="1" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+      <c r="A44" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="C44" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D44" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" s="0" t="s">
+      <c r="D44" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
+      <c r="A45" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C45" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D45" s="0" t="n">
+      <c r="D45" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G45" s="0" t="s">
+      <c r="G45" s="1" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
+      <c r="A46" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C46" s="0" t="s">
+      <c r="C46" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D46" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="s">
+      <c r="D46" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
+      <c r="A47" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C47" s="0" t="s">
+      <c r="C47" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D47" s="0" t="n">
+      <c r="D47" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G47" s="0" t="s">
+      <c r="G47" s="1" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
+      <c r="A48" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="0" t="s">
+      <c r="C48" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D48" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" s="0" t="s">
+      <c r="D48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
+      <c r="A49" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C49" s="0" t="s">
+      <c r="C49" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D49" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G49" s="0" t="s">
+      <c r="D49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
+      <c r="A50" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="C50" s="0" t="s">
+      <c r="C50" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D50" s="0" t="n">
+      <c r="D50" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G50" s="0" t="s">
+      <c r="G50" s="1" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
+      <c r="A51" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C51" s="0" t="s">
+      <c r="C51" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D51" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G51" s="0" t="s">
+      <c r="D51" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
+      <c r="A52" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C52" s="0" t="s">
+      <c r="C52" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D52" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G52" s="0" t="s">
+      <c r="D52" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
+      <c r="A53" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C53" s="0" t="s">
+      <c r="C53" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D53" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="0" t="s">
+      <c r="D53" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
+      <c r="A54" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C54" s="0" t="s">
+      <c r="C54" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D54" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G54" s="0" t="s">
+      <c r="D54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
+      <c r="A55" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="0" t="s">
+      <c r="C55" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D55" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G55" s="0" t="s">
+      <c r="D55" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
+      <c r="A56" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="B56" s="0" t="s">
+      <c r="B56" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D56" s="0" t="n">
+      <c r="D56" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G56" s="0" t="s">
+      <c r="G56" s="1" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
+      <c r="A57" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C57" s="0" t="s">
+      <c r="C57" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G57" s="0" t="s">
+      <c r="D57" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="1" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
+      <c r="A58" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="C58" s="0" t="s">
+      <c r="C58" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="D58" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="0" t="s">
+      <c r="D58" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
+      <c r="A59" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="C59" s="0" t="s">
+      <c r="C59" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D59" s="0" t="n">
+      <c r="D59" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G59" s="0" t="s">
+      <c r="G59" s="1" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
+      <c r="A60" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="C60" s="0" t="s">
+      <c r="C60" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="D60" s="0" t="n">
+      <c r="D60" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G60" s="0" t="s">
+      <c r="G60" s="1" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
+      <c r="A61" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="C61" s="0" t="s">
+      <c r="C61" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D61" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G61" s="0" t="s">
+      <c r="D61" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
+      <c r="A62" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="C62" s="0" t="s">
+      <c r="C62" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="D62" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="0" t="s">
+      <c r="D62" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="1" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
+      <c r="A63" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="C63" s="0" t="s">
+      <c r="C63" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D63" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G63" s="0" t="s">
+      <c r="D63" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
+      <c r="A64" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="C64" s="0" t="s">
+      <c r="C64" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D64" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G64" s="0" t="s">
+      <c r="D64" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
+      <c r="A65" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="C65" s="0" t="s">
+      <c r="C65" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D65" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="0" t="s">
+      <c r="D65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
+      <c r="A66" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="C66" s="0" t="s">
+      <c r="C66" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D66" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="0" t="s">
+      <c r="D66" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
+      <c r="A67" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="B67" s="0" t="s">
+      <c r="B67" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="D67" s="0" t="n">
+      <c r="D67" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G67" s="0" t="s">
+      <c r="G67" s="1" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
+      <c r="A68" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="C68" s="0" t="s">
+      <c r="C68" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D68" s="0" t="n">
+      <c r="D68" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G68" s="0" t="s">
+      <c r="G68" s="1" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
+      <c r="A69" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="C69" s="0" t="s">
+      <c r="C69" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D69" s="0" t="n">
+      <c r="D69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G69" s="0" t="s">
+      <c r="G69" s="1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
+      <c r="A70" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B70" s="0" t="s">
+      <c r="B70" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="C70" s="0" t="s">
+      <c r="C70" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D70" s="0" t="n">
+      <c r="D70" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G70" s="0" t="s">
+      <c r="G70" s="1" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
+      <c r="A71" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C71" s="0" t="s">
+      <c r="C71" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D71" s="0" t="n">
+      <c r="D71" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G71" s="0" t="s">
+      <c r="G71" s="1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
+      <c r="A72" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="B72" s="0" t="s">
+      <c r="B72" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C72" s="0" t="s">
+      <c r="C72" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="D72" s="0" t="n">
+      <c r="D72" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G72" s="0" t="s">
+      <c r="G72" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
+      <c r="A73" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="C73" s="0" t="s">
+      <c r="C73" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D73" s="0" t="n">
+      <c r="D73" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G73" s="0" t="s">
+      <c r="G73" s="1" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
+      <c r="A74" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="B74" s="0" t="s">
+      <c r="B74" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="C74" s="0" t="s">
+      <c r="C74" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D74" s="0" t="n">
+      <c r="D74" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G74" s="0" t="s">
+      <c r="G74" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
+      <c r="A75" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="C75" s="0" t="s">
+      <c r="C75" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D75" s="0" t="n">
+      <c r="D75" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G75" s="0" t="s">
+      <c r="G75" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
+      <c r="A76" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="B76" s="0" t="s">
+      <c r="B76" s="1" t="s">
         <v>342</v>
       </c>
-      <c r="C76" s="0" t="s">
+      <c r="C76" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D76" s="0" t="n">
+      <c r="D76" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G76" s="0" t="s">
+      <c r="G76" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
+      <c r="A77" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="C77" s="0" t="s">
+      <c r="C77" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D77" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G77" s="0" t="s">
+      <c r="D77" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
+      <c r="A78" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B78" s="0" t="s">
+      <c r="B78" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="C78" s="0" t="s">
+      <c r="C78" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D78" s="0" t="n">
+      <c r="D78" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G78" s="0" t="s">
+      <c r="G78" s="1" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
+      <c r="A79" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="B79" s="0" t="s">
+      <c r="B79" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="C79" s="0" t="s">
+      <c r="C79" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="D79" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G79" s="0" t="s">
+      <c r="D79" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="C80" s="0" t="s">
+      <c r="C80" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D80" s="0" t="n">
+      <c r="D80" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G80" s="0" t="s">
+      <c r="G80" s="1" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="C81" s="0" t="s">
+      <c r="C81" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D81" s="0" t="n">
+      <c r="D81" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G81" s="0" t="s">
+      <c r="G81" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="B82" s="0" t="s">
+      <c r="B82" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="C82" s="0" t="s">
+      <c r="C82" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="D82" s="0" t="n">
+      <c r="D82" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G82" s="0" t="s">
+      <c r="G82" s="1" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="C83" s="0" t="s">
+      <c r="C83" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="D83" s="0" t="n">
+      <c r="D83" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G83" s="0" t="s">
+      <c r="G83" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
+      <c r="A84" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="C84" s="0" t="s">
+      <c r="C84" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D84" s="0" t="n">
+      <c r="D84" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G84" s="0" t="s">
+      <c r="G84" s="1" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="B85" s="0" t="s">
+      <c r="B85" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="C85" s="0" t="s">
+      <c r="C85" s="1" t="s">
         <v>366</v>
       </c>
-      <c r="D85" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="G85" s="0" t="s">
+      <c r="D85" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>325</v>
       </c>
     </row>
@@ -3044,49 +3049,49 @@
   </sheetPr>
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>369</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>373</v>
       </c>
-      <c r="B2" s="0" t="n">
+      <c r="B2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="E2" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="0" t="n">
+      <c r="E2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <v>2</v>
       </c>
     </row>

--- a/upload.xlsx
+++ b/upload.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tags" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="375">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -350,6 +350,9 @@
   </si>
   <si>
     <t xml:space="preserve">contexts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">translations</t>
   </si>
   <si>
     <t xml:space="preserve">attuned</t>
@@ -1247,11 +1250,11 @@
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1315,7 +1318,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1767,13 +1770,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G85"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A58" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1797,1238 +1800,1241 @@
       <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="H1" s="0" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D11" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D17" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D20" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D24" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D25" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D27" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D31" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D33" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D34" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D36" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D37" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D38" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D39" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D41" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D42" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D44" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D45" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D46" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D47" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D48" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D49" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D50" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D51" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D52" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D53" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D54" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D55" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D56" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D57" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D58" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D59" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D60" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D61" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D62" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D63" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D64" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D65" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>309</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D65" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D67" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="D69" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D70" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D72" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D73" s="1" t="n">
         <v>0</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D74" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D75" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D76" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="D77" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D78" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="D79" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D80" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D81" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D82" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="D83" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D84" s="1" t="n">
         <v>2</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="D85" s="1" t="n">
         <v>1</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -3053,31 +3059,31 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>6</v>

--- a/upload.xlsx
+++ b/upload.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="266">
   <si>
     <t>name</t>
   </si>
@@ -51,61 +51,133 @@
     <t>last seen at</t>
   </si>
   <si>
+    <t>I saw the angel in the marble and carved until I set him free</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2022-04-06 12:02:54.724</t>
+  </si>
+  <si>
+    <t>No is a complete sentence</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:03:00.253</t>
+  </si>
+  <si>
+    <t>Give me 6 hours to chop down a tree and I will spend the first 4 sharpening the axe</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:03:14.226</t>
+  </si>
+  <si>
+    <t>Done is better than perfect</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:03:36.397</t>
+  </si>
+  <si>
+    <t>Do the most difficult thing first</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:03:55.235</t>
+  </si>
+  <si>
+    <t>Get the future out of your head</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:04:02.177</t>
+  </si>
+  <si>
     <t>Same habits, same results</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2022-04-04 22:00:07.789</t>
+    <t>2022-04-06 12:04:10.705</t>
+  </si>
+  <si>
+    <t>Simple is better than complex</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:04:32.59</t>
+  </si>
+  <si>
+    <t>Complex is better than complicated</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:04:36.976</t>
+  </si>
+  <si>
+    <t>Without great solitude no serious work is possible</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:04:39.506</t>
+  </si>
+  <si>
+    <t>Distinguish the vital few from the trivial many</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:04:45.338</t>
+  </si>
+  <si>
+    <t>Living by design, not by default</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:04:49.265</t>
+  </si>
+  <si>
+    <t>Sometimes what you don't do is just as important as what you do</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:04:53.585</t>
+  </si>
+  <si>
+    <t>The faintest pencil is better than the strongest memory</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:05:13.632</t>
+  </si>
+  <si>
+    <t>A little nonsense now and then is cherished by the wisest men</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:05:20.048</t>
+  </si>
+  <si>
+    <t>Your health is your greatest wealth</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:05:22.791</t>
+  </si>
+  <si>
+    <t>Escape to quiet thinking and boredom</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:05:25.216</t>
+  </si>
+  <si>
+    <t>Ultimate focus. Eliminate distractions</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:05:27.172</t>
+  </si>
+  <si>
+    <t>Exceptional people are built in solitude</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:05:29.135</t>
   </si>
   <si>
     <t>Saying what you mean and meaning what you say</t>
   </si>
   <si>
-    <t>2022-04-04 21:56:31.468</t>
-  </si>
-  <si>
-    <t>If it isn't a clear yes, then it's a clear no</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:56:37.185</t>
-  </si>
-  <si>
-    <t>To follow, without halt, one aim: there is the secret to success</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:56:41.433</t>
-  </si>
-  <si>
-    <t>Half of the troubles of this life can be traced to saying yes too quickly and not saying no soon enough</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:56:48.054</t>
+    <t>2022-04-06 12:05:32.797</t>
   </si>
   <si>
     <t>Less but better</t>
   </si>
   <si>
-    <t>2022-04-04 21:56:57.346</t>
-  </si>
-  <si>
-    <t>The main thing is to keep the main thing the main thing</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:57:02.296</t>
-  </si>
-  <si>
-    <t>Comfortable with cutting losses</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:57:08.045</t>
-  </si>
-  <si>
-    <t>Stop making casual commitments</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:57:13.567</t>
+    <t>2022-04-06 12:05:35.384</t>
   </si>
   <si>
     <t>Pause before you speak</t>
@@ -114,163 +186,7 @@
     <t>discipline;mindset</t>
   </si>
   <si>
-    <t>2022-04-04 21:57:18.551</t>
-  </si>
-  <si>
-    <t>Get over the fear of missing out</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:57:25.18</t>
-  </si>
-  <si>
-    <t>I saw the angel in the marble and carved until I set him free</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:57:30.763</t>
-  </si>
-  <si>
-    <t>No is a complete sentence</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:57:36.807</t>
-  </si>
-  <si>
-    <t>If you don't set boundaries - there won't be any</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:57:46.168</t>
-  </si>
-  <si>
-    <t>Give me 6 hours to chop down a tree and I will spend the first 4 sharpening the axe</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:57:50.758</t>
-  </si>
-  <si>
-    <t>Goals are good for setting a direction, but systems are best for making progress</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:01:50.2</t>
-  </si>
-  <si>
-    <t>Look for small changes you can do in areas you do often. There is power in steadiness and repetition</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:59:17.857</t>
-  </si>
-  <si>
-    <t>Done is better than perfect</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:59:28.382</t>
-  </si>
-  <si>
-    <t>Routine, in an intelligent man, is a sign of ambition</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:59:31.208</t>
-  </si>
-  <si>
-    <t>Routine eliminates nonessential distractions and enshrines the essentials</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:59:36.804</t>
-  </si>
-  <si>
-    <t>Do the most difficult thing first</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:59:42.61</t>
-  </si>
-  <si>
-    <t>Get the future out of your head</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:59:48.857</t>
-  </si>
-  <si>
-    <t>True behavior change is identity change</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:01:55.553</t>
-  </si>
-  <si>
-    <t>Simple is better than complex</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:02:18.017</t>
-  </si>
-  <si>
-    <t>Complex is better than complicated</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:02:20.984</t>
-  </si>
-  <si>
-    <t>Without great solitude no serious work is possible</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:02:23.825</t>
-  </si>
-  <si>
-    <t>Distinguish the vital few from the trivial many</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:02:30.505</t>
-  </si>
-  <si>
-    <t>Living by design, not by default</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:02:34.775</t>
-  </si>
-  <si>
-    <t>Sometimes what you don't do is just as important as what you do</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:02:37.785</t>
-  </si>
-  <si>
-    <t>Saying yes to any opportunity by definition requires saying no to several others</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:02:43.506</t>
-  </si>
-  <si>
-    <t>The faintest pencil is better than the strongest memory</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:03:36.129</t>
-  </si>
-  <si>
-    <t>A little nonsense now and then is cherished by the wisest men</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:03:41.024</t>
-  </si>
-  <si>
-    <t>Your health is your greatest wealth</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:03:46.257</t>
-  </si>
-  <si>
-    <t>Escape to quiet thinking and boredom</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:03:49.043</t>
-  </si>
-  <si>
-    <t>Ultimate focus. Eliminate distractions</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:04:06.516</t>
-  </si>
-  <si>
-    <t>Exceptional people are built in solitude</t>
-  </si>
-  <si>
-    <t>2022-04-04 22:04:11.033</t>
+    <t>2022-04-06 12:05:36.731</t>
   </si>
   <si>
     <t>word</t>
@@ -291,70 +207,451 @@
     <t>translations</t>
   </si>
   <si>
+    <t>ample</t>
+  </si>
+  <si>
+    <t>enough;plentiful</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:53:35.087</t>
+  </si>
+  <si>
+    <t>discerning</t>
+  </si>
+  <si>
+    <t>having or showing good judgement</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:28:28.541</t>
+  </si>
+  <si>
+    <t>condense</t>
+  </si>
+  <si>
+    <t>make denser or more concentrated</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:34:20.803</t>
+  </si>
+  <si>
+    <t>diligently</t>
+  </si>
+  <si>
+    <t>in a way that shows care in one's work or duties</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:36:09.398</t>
+  </si>
+  <si>
+    <t>inexorably</t>
+  </si>
+  <si>
+    <t>in a way that is impossible to stop or prevent</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:37:03.23</t>
+  </si>
+  <si>
+    <t>impose</t>
+  </si>
+  <si>
+    <t>force (an unwelcome decision or ruling) on someone</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:41:10.432</t>
+  </si>
+  <si>
+    <t>contagious</t>
+  </si>
+  <si>
+    <t>infectious</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:41:38.907</t>
+  </si>
+  <si>
+    <t>withstand</t>
+  </si>
+  <si>
+    <t>resist</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:41:43.046</t>
+  </si>
+  <si>
+    <t>felony</t>
+  </si>
+  <si>
+    <t>a violent and terrible crime</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:43:37.728</t>
+  </si>
+  <si>
+    <t>fallacy</t>
+  </si>
+  <si>
+    <t>a mistaken belief, especially one based on unsound arguments</t>
+  </si>
+  <si>
+    <t>misconception</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:43:44.458</t>
+  </si>
+  <si>
+    <t>soar</t>
+  </si>
+  <si>
+    <t>increasing rapidly above the usual level</t>
+  </si>
+  <si>
+    <t>fly up</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:43:49.565</t>
+  </si>
+  <si>
+    <t>stupor</t>
+  </si>
+  <si>
+    <t>a state of near-unconsciousness or insensibility</t>
+  </si>
+  <si>
+    <t>daze</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:44:01.427</t>
+  </si>
+  <si>
+    <t>intact</t>
+  </si>
+  <si>
+    <t>not damaged or impaired in any way; complete</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:44:10.327</t>
+  </si>
+  <si>
+    <t>overstate</t>
+  </si>
+  <si>
+    <t>exaggerate</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:45:19.119</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>the action of resorting to a course of action in a difficult situation</t>
+  </si>
+  <si>
+    <t>recourse to</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:45:12.871</t>
+  </si>
+  <si>
+    <t>inherent</t>
+  </si>
+  <si>
+    <t>existing in something as a permanent, essential, or characteristic attribute</t>
+  </si>
+  <si>
+    <t>intrinsic</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:45:23.414</t>
+  </si>
+  <si>
+    <t>prohibited</t>
+  </si>
+  <si>
+    <t>forbidden;banned</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:45:36.327</t>
+  </si>
+  <si>
+    <t>indulgence</t>
+  </si>
+  <si>
+    <t>self-gratification;satisfaction</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:45:44.772</t>
+  </si>
+  <si>
+    <t>sluggish</t>
+  </si>
+  <si>
+    <t>inactive;lethargic</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:45:50.339</t>
+  </si>
+  <si>
+    <t>prone</t>
+  </si>
+  <si>
+    <t>susceptible</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:46:00.836</t>
+  </si>
+  <si>
+    <t>inquisitive</t>
+  </si>
+  <si>
+    <t>curious</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:46:10.593</t>
+  </si>
+  <si>
+    <t>tedium</t>
+  </si>
+  <si>
+    <t>monotony</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:46:15.826</t>
+  </si>
+  <si>
+    <t>compelling</t>
+  </si>
+  <si>
+    <t>evoking interest, attention, or admiration in a powerfully irresistible way</t>
+  </si>
+  <si>
+    <t>enthralling;convincing</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:46:19.606</t>
+  </si>
+  <si>
+    <t>erratic</t>
+  </si>
+  <si>
+    <t>unpredictable</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:53:05.124</t>
+  </si>
+  <si>
+    <t>nurture</t>
+  </si>
+  <si>
+    <t>care for and protect (someone or smth) while they are growing</t>
+  </si>
+  <si>
+    <t>cultivate</t>
+  </si>
+  <si>
+    <t>2022-04-04 21:53:29.467</t>
+  </si>
+  <si>
+    <t>acquaintance</t>
+  </si>
+  <si>
+    <t>a person one knows slightly, but who is not a close friend</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>2022-04-06 11:56:48.484</t>
+  </si>
+  <si>
+    <t>coalesce</t>
+  </si>
+  <si>
+    <t>com together to form one mass or whole</t>
+  </si>
+  <si>
+    <t>unite</t>
+  </si>
+  <si>
+    <t>rigorous</t>
+  </si>
+  <si>
+    <t>extremely thorough and careful</t>
+  </si>
+  <si>
+    <t>strict;meticulous</t>
+  </si>
+  <si>
+    <t>2022-04-06 11:56:49.503</t>
+  </si>
+  <si>
+    <t>apt</t>
+  </si>
+  <si>
+    <t>inclined;suitable</t>
+  </si>
+  <si>
+    <t>virulent</t>
+  </si>
+  <si>
+    <t>infectious;poisonous</t>
+  </si>
+  <si>
+    <t>2022-04-06 11:59:52.39</t>
+  </si>
+  <si>
+    <t>mediocre</t>
+  </si>
+  <si>
+    <t>of only average quality; not very good</t>
+  </si>
+  <si>
+    <t>ordinary</t>
+  </si>
+  <si>
+    <t>2022-04-06 11:55:42.572</t>
+  </si>
+  <si>
+    <t>weed out</t>
+  </si>
+  <si>
+    <t>isolate</t>
+  </si>
+  <si>
+    <t>2022-04-06 11:54:08.707</t>
+  </si>
+  <si>
+    <t>reluctance</t>
+  </si>
+  <si>
+    <t>unwillingness</t>
+  </si>
+  <si>
+    <t>resentment</t>
+  </si>
+  <si>
+    <t>bitterness</t>
+  </si>
+  <si>
+    <t>restrained</t>
+  </si>
+  <si>
+    <t>self-controlled</t>
+  </si>
+  <si>
+    <t>imply</t>
+  </si>
+  <si>
+    <t>insinuate;suggest</t>
+  </si>
+  <si>
+    <t>2022-04-06 11:54:09.735</t>
+  </si>
+  <si>
+    <t>fret</t>
+  </si>
+  <si>
+    <t>be constantly or visibly anxious</t>
+  </si>
+  <si>
+    <t>worry;trouble</t>
+  </si>
+  <si>
+    <t>conviction</t>
+  </si>
+  <si>
+    <t>belief</t>
+  </si>
+  <si>
+    <t>vigilant</t>
+  </si>
+  <si>
+    <t>watchful</t>
+  </si>
+  <si>
+    <t>affliction</t>
+  </si>
+  <si>
+    <t>disorder;suffering</t>
+  </si>
+  <si>
+    <t>2022-04-06 11:55:43.595</t>
+  </si>
+  <si>
+    <t>utter</t>
+  </si>
+  <si>
+    <t>absolute;complete</t>
+  </si>
+  <si>
+    <t>tenet</t>
+  </si>
+  <si>
+    <t>principle</t>
+  </si>
+  <si>
+    <t>2022-04-06 11:54:46.336</t>
+  </si>
+  <si>
+    <t>vague</t>
+  </si>
+  <si>
+    <t>imprecise</t>
+  </si>
+  <si>
     <t>fatigue</t>
   </si>
   <si>
     <t>tiredness</t>
   </si>
   <si>
-    <t>2022-04-04 21:53:33.789</t>
-  </si>
-  <si>
-    <t>ample</t>
-  </si>
-  <si>
-    <t>enough;plentiful</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:53:35.087</t>
-  </si>
-  <si>
-    <t>vigilant</t>
-  </si>
-  <si>
-    <t>watchful</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:29:29.556</t>
-  </si>
-  <si>
-    <t>discerning</t>
-  </si>
-  <si>
-    <t>having or showing good judgement</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:28:28.541</t>
-  </si>
-  <si>
-    <t>mediocre</t>
-  </si>
-  <si>
-    <t>of only average quality; not very good</t>
-  </si>
-  <si>
-    <t>ordinary</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:29:09.622</t>
-  </si>
-  <si>
-    <t>utter</t>
-  </si>
-  <si>
-    <t>absolute;complete</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:29:20.276</t>
-  </si>
-  <si>
-    <t>conviction</t>
-  </si>
-  <si>
-    <t>belief</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:29:25.551</t>
+    <t>anticipate</t>
+  </si>
+  <si>
+    <t>expect;predict</t>
+  </si>
+  <si>
+    <t>2022-04-06 11:54:47.361</t>
+  </si>
+  <si>
+    <t>startling</t>
+  </si>
+  <si>
+    <t>remarkable;surprising;astonishing</t>
+  </si>
+  <si>
+    <t>lure</t>
+  </si>
+  <si>
+    <t>tempt</t>
+  </si>
+  <si>
+    <t>2022-04-06 11:58:32.143</t>
+  </si>
+  <si>
+    <t>proverb</t>
+  </si>
+  <si>
+    <t>saying</t>
+  </si>
+  <si>
+    <t>disclosure</t>
+  </si>
+  <si>
+    <t>revelation;publishing</t>
+  </si>
+  <si>
+    <t>opulent</t>
+  </si>
+  <si>
+    <t>luxurious;wealthy</t>
+  </si>
+  <si>
+    <t>2022-04-06 11:58:33.164</t>
   </si>
   <si>
     <t>notorious</t>
@@ -366,70 +663,16 @@
     <t>infamous</t>
   </si>
   <si>
-    <t>2022-04-04 21:29:33.28</t>
-  </si>
-  <si>
-    <t>resentment</t>
-  </si>
-  <si>
-    <t>bitterness</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:32:49.669</t>
-  </si>
-  <si>
-    <t>rigorous</t>
-  </si>
-  <si>
-    <t>extremely thorough and careful</t>
-  </si>
-  <si>
-    <t>strict;meticulous</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:31:10.784</t>
-  </si>
-  <si>
-    <t>weed out</t>
-  </si>
-  <si>
-    <t>isolate</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:31:16.876</t>
-  </si>
-  <si>
-    <t>acquaintance</t>
-  </si>
-  <si>
-    <t>a person one knows slightly, but who is not a close friend</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:31:20.967</t>
-  </si>
-  <si>
-    <t>reluctance</t>
-  </si>
-  <si>
-    <t>unwillingness</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:31:35.484</t>
-  </si>
-  <si>
-    <t>coalesce</t>
-  </si>
-  <si>
-    <t>com together to form one mass or whole</t>
-  </si>
-  <si>
-    <t>unite</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:32:56.256</t>
+    <t>congenial</t>
+  </si>
+  <si>
+    <t>pleasant;like-minded</t>
+  </si>
+  <si>
+    <t>sporadically</t>
+  </si>
+  <si>
+    <t>occasionally;irregularly</t>
   </si>
   <si>
     <t>unsolicited</t>
@@ -441,7 +684,25 @@
     <t>uninvited</t>
   </si>
   <si>
-    <t>2022-04-04 21:34:46.169</t>
+    <t>2022-04-06 11:57:25.836</t>
+  </si>
+  <si>
+    <t>resemble</t>
+  </si>
+  <si>
+    <t>look like</t>
+  </si>
+  <si>
+    <t>resilience</t>
+  </si>
+  <si>
+    <t>flexibility</t>
+  </si>
+  <si>
+    <t>arbitrary</t>
+  </si>
+  <si>
+    <t>random</t>
   </si>
   <si>
     <t>crestfallen</t>
@@ -450,118 +711,7 @@
     <t>disappointed;downhearted</t>
   </si>
   <si>
-    <t>2022-04-04 21:33:02.247</t>
-  </si>
-  <si>
-    <t>resemble</t>
-  </si>
-  <si>
-    <t>look like</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:34:51.283</t>
-  </si>
-  <si>
-    <t>imply</t>
-  </si>
-  <si>
-    <t>insinuate;suggest</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:33:33.793</t>
-  </si>
-  <si>
-    <t>opulent</t>
-  </si>
-  <si>
-    <t>luxurious;wealthy</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:38:20.776</t>
-  </si>
-  <si>
-    <t>anticipate</t>
-  </si>
-  <si>
-    <t>expect;predict</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:35:30.968</t>
-  </si>
-  <si>
-    <t>restrained</t>
-  </si>
-  <si>
-    <t>self-controlled</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:34:14.173</t>
-  </si>
-  <si>
-    <t>condense</t>
-  </si>
-  <si>
-    <t>make denser or more concentrated</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:34:20.803</t>
-  </si>
-  <si>
-    <t>apt</t>
-  </si>
-  <si>
-    <t>inclined;suitable</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:34:31.288</t>
-  </si>
-  <si>
-    <t>fret</t>
-  </si>
-  <si>
-    <t>be constantly or visibly anxious</t>
-  </si>
-  <si>
-    <t>worry;trouble</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:34:38.488</t>
-  </si>
-  <si>
-    <t>diligently</t>
-  </si>
-  <si>
-    <t>in a way that shows care in one's work or duties</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:36:09.398</t>
-  </si>
-  <si>
-    <t>resilience</t>
-  </si>
-  <si>
-    <t>flexibility</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:36:19.913</t>
-  </si>
-  <si>
-    <t>tenet</t>
-  </si>
-  <si>
-    <t>principle</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:38:32.297</t>
-  </si>
-  <si>
-    <t>arbitrary</t>
-  </si>
-  <si>
-    <t>random</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:36:39.466</t>
+    <t>2022-04-06 11:57:26.86</t>
   </si>
   <si>
     <t>exquisite</t>
@@ -570,79 +720,28 @@
     <t>beautiful;delicate</t>
   </si>
   <si>
-    <t>2022-04-04 21:36:43.514</t>
-  </si>
-  <si>
-    <t>lure</t>
-  </si>
-  <si>
-    <t>tempt</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:38:37.187</t>
-  </si>
-  <si>
-    <t>inexorably</t>
-  </si>
-  <si>
-    <t>in a way that is impossible to stop or prevent</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:37:03.23</t>
-  </si>
-  <si>
-    <t>sporadically</t>
-  </si>
-  <si>
-    <t>occasionally;irregularly</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:37:14.128</t>
-  </si>
-  <si>
-    <t>affliction</t>
-  </si>
-  <si>
-    <t>disorder;suffering</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:38:14.03</t>
-  </si>
-  <si>
-    <t>proverb</t>
-  </si>
-  <si>
-    <t>saying</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:38:42.968</t>
-  </si>
-  <si>
-    <t>startling</t>
-  </si>
-  <si>
-    <t>remarkable;surprising;astonishing</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:38:50.09</t>
-  </si>
-  <si>
-    <t>congenial</t>
-  </si>
-  <si>
-    <t>pleasant;like-minded</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:38:56.083</t>
-  </si>
-  <si>
-    <t>disclosure</t>
-  </si>
-  <si>
-    <t>revelation;publishing</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:39:26.495</t>
+    <t>plead</t>
+  </si>
+  <si>
+    <t>beg</t>
+  </si>
+  <si>
+    <t>2022-04-06 12:00:39.232</t>
+  </si>
+  <si>
+    <t>revolt</t>
+  </si>
+  <si>
+    <t>rebel</t>
+  </si>
+  <si>
+    <t>2022-04-06 11:59:51.371</t>
+  </si>
+  <si>
+    <t>tame</t>
+  </si>
+  <si>
+    <t>domesticated</t>
   </si>
   <si>
     <t>astounding</t>
@@ -651,88 +750,40 @@
     <t>amazing;impressive;notable</t>
   </si>
   <si>
-    <t>2022-04-04 21:39:32.924</t>
-  </si>
-  <si>
     <t>tangible</t>
   </si>
   <si>
     <t>real;touchable</t>
   </si>
   <si>
-    <t>2022-04-04 21:39:39.328</t>
-  </si>
-  <si>
     <t>growl</t>
   </si>
   <si>
     <t>snarl;say roughly</t>
   </si>
   <si>
-    <t>2022-04-04 21:41:05.088</t>
-  </si>
-  <si>
-    <t>impose</t>
-  </si>
-  <si>
-    <t>force (an unwelcome decision or ruling) on someone</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:41:10.432</t>
-  </si>
-  <si>
-    <t>revolt</t>
-  </si>
-  <si>
-    <t>rebel</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:41:29.723</t>
-  </si>
-  <si>
-    <t>tame</t>
-  </si>
-  <si>
-    <t>domesticated</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:41:34.432</t>
-  </si>
-  <si>
-    <t>contagious</t>
-  </si>
-  <si>
-    <t>infectious</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:41:38.907</t>
-  </si>
-  <si>
-    <t>withstand</t>
-  </si>
-  <si>
-    <t>resist</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:41:43.046</t>
-  </si>
-  <si>
-    <t>virulent</t>
-  </si>
-  <si>
-    <t>infectious;poisonous</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:42:02.397</t>
-  </si>
-  <si>
-    <t>plead</t>
-  </si>
-  <si>
-    <t>beg</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:42:06.908</t>
+    <t>induce</t>
+  </si>
+  <si>
+    <t>persuade</t>
+  </si>
+  <si>
+    <t>consent</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>ramification</t>
+  </si>
+  <si>
+    <t>consequence</t>
+  </si>
+  <si>
+    <t>lambast</t>
+  </si>
+  <si>
+    <t>criticize harshly</t>
   </si>
   <si>
     <t>imminent</t>
@@ -741,229 +792,7 @@
     <t>impending;overhanging</t>
   </si>
   <si>
-    <t>2022-04-04 21:42:10.617</t>
-  </si>
-  <si>
-    <t>induce</t>
-  </si>
-  <si>
-    <t>persuade</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:42:16.426</t>
-  </si>
-  <si>
-    <t>consent</t>
-  </si>
-  <si>
-    <t>agreement</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:43:30.216</t>
-  </si>
-  <si>
-    <t>ramification</t>
-  </si>
-  <si>
-    <t>consequence</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:43:30.247</t>
-  </si>
-  <si>
-    <t>felony</t>
-  </si>
-  <si>
-    <t>a violent and terrible crime</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:43:37.728</t>
-  </si>
-  <si>
-    <t>fallacy</t>
-  </si>
-  <si>
-    <t>a mistaken belief, especially one based on unsound arguments</t>
-  </si>
-  <si>
-    <t>misconception</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:43:44.458</t>
-  </si>
-  <si>
-    <t>soar</t>
-  </si>
-  <si>
-    <t>increasing rapidly above the usual level</t>
-  </si>
-  <si>
-    <t>fly up</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:43:49.565</t>
-  </si>
-  <si>
-    <t>stupor</t>
-  </si>
-  <si>
-    <t>a state of near-unconsciousness or insensibility</t>
-  </si>
-  <si>
-    <t>daze</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:44:01.427</t>
-  </si>
-  <si>
-    <t>lambast</t>
-  </si>
-  <si>
-    <t>criticize harshly</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:44:05.741</t>
-  </si>
-  <si>
-    <t>intact</t>
-  </si>
-  <si>
-    <t>not damaged or impaired in any way; complete</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:44:10.327</t>
-  </si>
-  <si>
-    <t>overstate</t>
-  </si>
-  <si>
-    <t>exaggerate</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:45:19.119</t>
-  </si>
-  <si>
-    <t>resort</t>
-  </si>
-  <si>
-    <t>the action of resorting to a course of action in a difficult situation</t>
-  </si>
-  <si>
-    <t>recourse to</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:45:12.871</t>
-  </si>
-  <si>
-    <t>inherent</t>
-  </si>
-  <si>
-    <t>existing in something as a permanent, essential, or characteristic attribute</t>
-  </si>
-  <si>
-    <t>intrinsic</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:45:23.414</t>
-  </si>
-  <si>
-    <t>prohibited</t>
-  </si>
-  <si>
-    <t>forbidden;banned</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:45:36.327</t>
-  </si>
-  <si>
-    <t>indulgence</t>
-  </si>
-  <si>
-    <t>self-gratification;satisfaction</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:45:44.772</t>
-  </si>
-  <si>
-    <t>sluggish</t>
-  </si>
-  <si>
-    <t>inactive;lethargic</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:45:50.339</t>
-  </si>
-  <si>
-    <t>prone</t>
-  </si>
-  <si>
-    <t>susceptible</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:46:00.836</t>
-  </si>
-  <si>
-    <t>inquisitive</t>
-  </si>
-  <si>
-    <t>curious</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:46:10.593</t>
-  </si>
-  <si>
-    <t>tedium</t>
-  </si>
-  <si>
-    <t>monotony</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:46:15.826</t>
-  </si>
-  <si>
-    <t>compelling</t>
-  </si>
-  <si>
-    <t>evoking interest, attention, or admiration in a powerfully irresistible way</t>
-  </si>
-  <si>
-    <t>enthralling;convincing</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:46:19.606</t>
-  </si>
-  <si>
-    <t>vague</t>
-  </si>
-  <si>
-    <t>imprecise</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:52:59.224</t>
-  </si>
-  <si>
-    <t>erratic</t>
-  </si>
-  <si>
-    <t>unpredictable</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:53:05.124</t>
-  </si>
-  <si>
-    <t>nurture</t>
-  </si>
-  <si>
-    <t>care for and protect (someone or smth) while they are growing</t>
-  </si>
-  <si>
-    <t>cultivate</t>
-  </si>
-  <si>
-    <t>2022-04-04 21:53:29.467</t>
+    <t>2022-04-06 12:00:40.248</t>
   </si>
   <si>
     <t>default language name</t>
@@ -1082,7 +911,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1115,7 +944,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
@@ -1126,7 +955,7 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1148,7 +977,7 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -1159,7 +988,7 @@
         <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -1181,7 +1010,7 @@
         <v>26</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>27</v>
@@ -1192,7 +1021,7 @@
         <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
@@ -1203,296 +1032,142 @@
         <v>30</v>
       </c>
       <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>35</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
         <v>39</v>
-      </c>
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
         <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
         <v>43</v>
-      </c>
-      <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" t="s">
         <v>45</v>
-      </c>
-      <c r="B18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>49</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>51</v>
-      </c>
-      <c r="B21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
         <v>53</v>
-      </c>
-      <c r="B22" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
         <v>55</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
       </c>
       <c r="C23" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>57</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B27" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>65</v>
-      </c>
-      <c r="B28" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>81</v>
-      </c>
-      <c r="B36" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>83</v>
-      </c>
-      <c r="B37" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1510,45 +1185,45 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>64</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G2" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="H2" t="s">
         <v>12</v>
@@ -1556,19 +1231,19 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>12</v>
       </c>
       <c r="D3" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="H3" t="s">
         <v>12</v>
@@ -1576,19 +1251,19 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="H4" t="s">
         <v>12</v>
@@ -1596,10 +1271,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1608,7 +1283,7 @@
         <v>0.0</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s">
         <v>12</v>
@@ -1616,19 +1291,19 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s">
         <v>12</v>
@@ -1636,19 +1311,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
         <v>12</v>
@@ -1656,19 +1331,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G8" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="H8" t="s">
         <v>12</v>
@@ -1676,19 +1351,19 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G9" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="H9" t="s">
         <v>12</v>
@@ -1696,19 +1371,19 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
       <c r="D10" t="n">
         <v>0.0</v>
       </c>
       <c r="G10" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
         <v>12</v>
@@ -1716,19 +1391,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="C11" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="D11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G11" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
         <v>12</v>
@@ -1736,19 +1411,19 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="H12" t="s">
         <v>12</v>
@@ -1756,19 +1431,19 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G13" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="H13" t="s">
         <v>12</v>
@@ -1776,19 +1451,19 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>103</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>104</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="H14" t="s">
         <v>12</v>
@@ -1796,19 +1471,19 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="B15" t="s">
-        <v>135</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="D15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G15" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="H15" t="s">
         <v>12</v>
@@ -1816,19 +1491,19 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="D16" t="n">
         <v>1.0</v>
       </c>
       <c r="G16" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="H16" t="s">
         <v>12</v>
@@ -1836,19 +1511,19 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>142</v>
+        <v>113</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>114</v>
       </c>
       <c r="C17" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G17" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="H17" t="s">
         <v>12</v>
@@ -1856,19 +1531,19 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="D18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G18" t="s">
-        <v>147</v>
+        <v>119</v>
       </c>
       <c r="H18" t="s">
         <v>12</v>
@@ -1876,19 +1551,19 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G19" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
         <v>12</v>
@@ -1896,19 +1571,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>124</v>
       </c>
       <c r="D20" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>125</v>
       </c>
       <c r="H20" t="s">
         <v>12</v>
@@ -1916,19 +1591,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>155</v>
+        <v>127</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G21" t="s">
-        <v>156</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
         <v>12</v>
@@ -1936,19 +1611,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>129</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" t="s">
-        <v>158</v>
+        <v>130</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G22" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
       <c r="H22" t="s">
         <v>12</v>
@@ -1956,19 +1631,19 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>12</v>
       </c>
       <c r="C23" t="s">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G23" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="H23" t="s">
         <v>12</v>
@@ -1976,19 +1651,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>136</v>
       </c>
       <c r="C24" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="D24" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G24" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="H24" t="s">
         <v>12</v>
@@ -1996,19 +1671,19 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G25" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="H25" t="s">
         <v>12</v>
@@ -2016,19 +1691,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>144</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G26" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="H26" t="s">
         <v>12</v>
@@ -2036,19 +1711,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="C27" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="D27" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G27" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="H27" t="s">
         <v>12</v>
@@ -2056,19 +1731,19 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G28" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="H28" t="s">
         <v>12</v>
@@ -2076,19 +1751,19 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>154</v>
       </c>
       <c r="C29" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="D29" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G29" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="H29" t="s">
         <v>12</v>
@@ -2096,19 +1771,19 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="D30" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G30" t="s">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="H30" t="s">
         <v>12</v>
@@ -2116,19 +1791,19 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="D31" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G31" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="H31" t="s">
         <v>12</v>
@@ -2136,19 +1811,19 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>164</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G32" t="s">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="H32" t="s">
         <v>12</v>
@@ -2156,19 +1831,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="D33" t="n">
         <v>1.0</v>
       </c>
       <c r="G33" t="s">
-        <v>193</v>
+        <v>168</v>
       </c>
       <c r="H33" t="s">
         <v>12</v>
@@ -2176,19 +1851,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>169</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>170</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G34" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="H34" t="s">
         <v>12</v>
@@ -2196,19 +1871,19 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="D35" t="n">
         <v>1.0</v>
       </c>
       <c r="G35" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="H35" t="s">
         <v>12</v>
@@ -2216,19 +1891,19 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="G36" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="H36" t="s">
         <v>12</v>
@@ -2236,19 +1911,19 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="D37" t="n">
         <v>1.0</v>
       </c>
       <c r="G37" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="H37" t="s">
         <v>12</v>
@@ -2256,19 +1931,19 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="B38" t="s">
-        <v>12</v>
+        <v>179</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="D38" t="n">
         <v>1.0</v>
       </c>
       <c r="G38" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="H38" t="s">
         <v>12</v>
@@ -2276,19 +1951,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="B39" t="s">
         <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="D39" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G39" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
       <c r="H39" t="s">
         <v>12</v>
@@ -2296,19 +1971,19 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="B40" t="s">
         <v>12</v>
       </c>
       <c r="C40" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
       <c r="D40" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G40" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="H40" t="s">
         <v>12</v>
@@ -2316,19 +1991,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
+        <v>186</v>
       </c>
       <c r="D41" t="n">
         <v>1.0</v>
       </c>
       <c r="G41" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="H41" t="s">
         <v>12</v>
@@ -2336,19 +2011,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="B42" t="s">
-        <v>219</v>
+        <v>12</v>
       </c>
       <c r="C42" t="s">
-        <v>12</v>
+        <v>189</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G42" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="H42" t="s">
         <v>12</v>
@@ -2356,19 +2031,19 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
       </c>
       <c r="C43" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="D43" t="n">
         <v>1.0</v>
       </c>
       <c r="G43" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="H43" t="s">
         <v>12</v>
@@ -2376,19 +2051,19 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="B44" t="s">
         <v>12</v>
       </c>
       <c r="C44" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="D44" t="n">
         <v>1.0</v>
       </c>
       <c r="G44" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
       <c r="H44" t="s">
         <v>12</v>
@@ -2396,19 +2071,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="B45" t="s">
         <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>228</v>
+        <v>196</v>
       </c>
       <c r="D45" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G45" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="H45" t="s">
         <v>12</v>
@@ -2416,19 +2091,19 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
         <v>12</v>
       </c>
       <c r="C46" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="D46" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="H46" t="s">
         <v>12</v>
@@ -2436,19 +2111,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="B47" t="s">
         <v>12</v>
       </c>
       <c r="C47" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="D47" t="n">
         <v>1.0</v>
       </c>
       <c r="G47" t="s">
-        <v>235</v>
+        <v>187</v>
       </c>
       <c r="H47" t="s">
         <v>12</v>
@@ -2456,19 +2131,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="D48" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G48" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="H48" t="s">
         <v>12</v>
@@ -2476,19 +2151,19 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
         <v>12</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
       <c r="D49" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G49" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="H49" t="s">
         <v>12</v>
@@ -2496,19 +2171,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="B50" t="s">
         <v>12</v>
       </c>
       <c r="C50" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="D50" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G50" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="H50" t="s">
         <v>12</v>
@@ -2516,19 +2191,19 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>245</v>
+        <v>209</v>
       </c>
       <c r="B51" t="s">
         <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>210</v>
       </c>
       <c r="D51" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G51" t="s">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="H51" t="s">
         <v>12</v>
@@ -2536,19 +2211,19 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>248</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="C52" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="D52" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G52" t="s">
-        <v>250</v>
+        <v>149</v>
       </c>
       <c r="H52" t="s">
         <v>12</v>
@@ -2556,19 +2231,19 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>251</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s">
-        <v>252</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G53" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="H53" t="s">
         <v>12</v>
@@ -2576,19 +2251,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="B54" t="s">
-        <v>255</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>256</v>
+        <v>218</v>
       </c>
       <c r="D54" t="n">
         <v>2.0</v>
       </c>
       <c r="G54" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="H54" t="s">
         <v>12</v>
@@ -2596,19 +2271,19 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="B55" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="D55" t="n">
         <v>2.0</v>
       </c>
       <c r="G55" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="H55" t="s">
         <v>12</v>
@@ -2616,19 +2291,19 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="B56" t="s">
-        <v>263</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>264</v>
+        <v>224</v>
       </c>
       <c r="D56" t="n">
         <v>2.0</v>
       </c>
       <c r="G56" t="s">
-        <v>265</v>
+        <v>222</v>
       </c>
       <c r="H56" t="s">
         <v>12</v>
@@ -2636,19 +2311,19 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="B57" t="s">
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="D57" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G57" t="s">
-        <v>268</v>
+        <v>222</v>
       </c>
       <c r="H57" t="s">
         <v>12</v>
@@ -2656,19 +2331,19 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="B58" t="s">
-        <v>270</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="D58" t="n">
         <v>2.0</v>
       </c>
       <c r="G58" t="s">
-        <v>272</v>
+        <v>222</v>
       </c>
       <c r="H58" t="s">
         <v>12</v>
@@ -2676,19 +2351,19 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>273</v>
+        <v>229</v>
       </c>
       <c r="B59" t="s">
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>274</v>
+        <v>230</v>
       </c>
       <c r="D59" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="G59" t="s">
-        <v>275</v>
+        <v>231</v>
       </c>
       <c r="H59" t="s">
         <v>12</v>
@@ -2696,19 +2371,19 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="B60" t="s">
-        <v>277</v>
+        <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>278</v>
+        <v>233</v>
       </c>
       <c r="D60" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G60" t="s">
-        <v>279</v>
+        <v>231</v>
       </c>
       <c r="H60" t="s">
         <v>12</v>
@@ -2716,19 +2391,19 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>280</v>
+        <v>234</v>
       </c>
       <c r="B61" t="s">
-        <v>281</v>
+        <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>282</v>
+        <v>235</v>
       </c>
       <c r="D61" t="n">
         <v>2.0</v>
       </c>
       <c r="G61" t="s">
-        <v>283</v>
+        <v>236</v>
       </c>
       <c r="H61" t="s">
         <v>12</v>
@@ -2736,19 +2411,19 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>284</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>285</v>
+        <v>238</v>
       </c>
       <c r="D62" t="n">
         <v>2.0</v>
       </c>
       <c r="G62" t="s">
-        <v>286</v>
+        <v>239</v>
       </c>
       <c r="H62" t="s">
         <v>12</v>
@@ -2756,19 +2431,19 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>287</v>
+        <v>240</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>288</v>
+        <v>241</v>
       </c>
       <c r="D63" t="n">
         <v>2.0</v>
       </c>
       <c r="G63" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="H63" t="s">
         <v>12</v>
@@ -2776,19 +2451,19 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>290</v>
+        <v>242</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>291</v>
+        <v>243</v>
       </c>
       <c r="D64" t="n">
         <v>2.0</v>
       </c>
       <c r="G64" t="s">
-        <v>292</v>
+        <v>161</v>
       </c>
       <c r="H64" t="s">
         <v>12</v>
@@ -2796,19 +2471,19 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>294</v>
+        <v>245</v>
       </c>
       <c r="D65" t="n">
         <v>2.0</v>
       </c>
       <c r="G65" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
       <c r="H65" t="s">
         <v>12</v>
@@ -2816,19 +2491,19 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>296</v>
+        <v>246</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>297</v>
+        <v>247</v>
       </c>
       <c r="D66" t="n">
         <v>2.0</v>
       </c>
       <c r="G66" t="s">
-        <v>298</v>
+        <v>161</v>
       </c>
       <c r="H66" t="s">
         <v>12</v>
@@ -2836,19 +2511,19 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>299</v>
+        <v>248</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>300</v>
+        <v>249</v>
       </c>
       <c r="D67" t="n">
         <v>2.0</v>
       </c>
       <c r="G67" t="s">
-        <v>301</v>
+        <v>236</v>
       </c>
       <c r="H67" t="s">
         <v>12</v>
@@ -2856,19 +2531,19 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>302</v>
+        <v>250</v>
       </c>
       <c r="B68" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>304</v>
+        <v>251</v>
       </c>
       <c r="D68" t="n">
         <v>2.0</v>
       </c>
       <c r="G68" t="s">
-        <v>305</v>
+        <v>236</v>
       </c>
       <c r="H68" t="s">
         <v>12</v>
@@ -2876,19 +2551,19 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>306</v>
+        <v>252</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>307</v>
+        <v>253</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0</v>
+        <v>2.0</v>
       </c>
       <c r="G69" t="s">
-        <v>308</v>
+        <v>236</v>
       </c>
       <c r="H69" t="s">
         <v>12</v>
@@ -2896,19 +2571,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>310</v>
+        <v>255</v>
       </c>
       <c r="D70" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G70" t="s">
-        <v>311</v>
+        <v>236</v>
       </c>
       <c r="H70" t="s">
         <v>12</v>
@@ -2916,19 +2591,19 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>312</v>
+        <v>256</v>
       </c>
       <c r="B71" t="s">
-        <v>313</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>314</v>
+        <v>257</v>
       </c>
       <c r="D71" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G71" t="s">
-        <v>315</v>
+        <v>258</v>
       </c>
       <c r="H71" t="s">
         <v>12</v>
@@ -2949,28 +2624,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="E1" t="s">
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="G1" t="s">
         <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2988,27 +2663,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>316</v>
+        <v>259</v>
       </c>
       <c r="B1" t="s">
-        <v>317</v>
+        <v>260</v>
       </c>
       <c r="C1" t="s">
-        <v>318</v>
+        <v>261</v>
       </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>262</v>
       </c>
       <c r="E1" t="s">
-        <v>320</v>
+        <v>263</v>
       </c>
       <c r="F1" t="s">
-        <v>321</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>322</v>
+        <v>265</v>
       </c>
       <c r="B2" t="n">
         <v>6.0</v>
